--- a/GOA/Model runs/GOA_18.2.2 - Time Varying - 2sex - ATFq/Biomass_Estimate_ATFq.xlsx
+++ b/GOA/Model runs/GOA_18.2.2 - Time Varying - 2sex - ATFq/Biomass_Estimate_ATFq.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grantadams/Documents/GitHub/RceattleRuns/GOA/Model runs/GOA_18.2.2 - Time Varying - 2sex - ATFq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13BA3C-CC38-B247-9689-58F2711A6113}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB390B1D-2170-EC46-8DE2-639F1DC52AE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="460" windowWidth="21160" windowHeight="14380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,130 +719,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1287.2772752782059</c:v>
+                  <c:v>1287.2398110973161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1493.5079552293132</c:v>
+                  <c:v>1493.465922153727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2034.511609640206</c:v>
+                  <c:v>2034.456893588781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2193.9491351668962</c:v>
+                  <c:v>2193.8917593016149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2299.1745217484468</c:v>
+                  <c:v>2299.1141955319949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2181.8976314603869</c:v>
+                  <c:v>2181.8368845879527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1873.5743784715171</c:v>
+                  <c:v>1873.5177514517109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1625.5590314028209</c:v>
+                  <c:v>1625.4966690614319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1441.882969475563</c:v>
+                  <c:v>1441.8133554747221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1133.2423932611239</c:v>
+                  <c:v>1133.1756215383939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1026.8423185689649</c:v>
+                  <c:v>1026.7789366960881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1002.893398811499</c:v>
+                  <c:v>1002.831544989106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1126.926318756618</c:v>
+                  <c:v>1126.863694298097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1226.656585308494</c:v>
+                  <c:v>1226.5957083751521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1207.315842264305</c:v>
+                  <c:v>1207.2594761460291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1125.8080164781181</c:v>
+                  <c:v>1125.758129378429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1039.715345826603</c:v>
+                  <c:v>1039.6719841688109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>858.48538003192857</c:v>
+                  <c:v>858.44921455432507</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>833.31405869497723</c:v>
+                  <c:v>833.28315462214857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>711.68671074917302</c:v>
+                  <c:v>711.66137363753649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>684.1584742486649</c:v>
+                  <c:v>684.13707177102754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>628.5692305461406</c:v>
+                  <c:v>628.55056974060756</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>457.24620050789099</c:v>
+                  <c:v>457.23150973495291</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>472.0153468017474</c:v>
+                  <c:v>471.99982536725616</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>536.34608441857233</c:v>
+                  <c:v>536.32935361108071</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>599.28287504453556</c:v>
+                  <c:v>599.26406863113482</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>602.09296130758901</c:v>
+                  <c:v>602.07435467119342</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>485.79212261799751</c:v>
+                  <c:v>485.77590419094116</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>404.03260285571281</c:v>
+                  <c:v>404.01741482019082</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403.54674065349195</c:v>
+                  <c:v>403.52918153675529</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>443.00738840552754</c:v>
+                  <c:v>442.98748278890338</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>637.51223870851868</c:v>
+                  <c:v>637.48576402225115</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>894.42544636112052</c:v>
+                  <c:v>894.38866555280651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>895.58860934247969</c:v>
+                  <c:v>895.54718921361564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>875.57652561118823</c:v>
+                  <c:v>875.53281698804915</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>894.52847269757012</c:v>
+                  <c:v>894.47867487857638</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1170.9493989373159</c:v>
+                  <c:v>1170.9118624570901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1727.4745650246839</c:v>
+                  <c:v>1727.467358527558</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1404.6095133935321</c:v>
+                  <c:v>1404.5960696939969</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1291.0695646892559</c:v>
+                  <c:v>1291.057036330021</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>946.4635135120858</c:v>
+                  <c:v>946.43925093828796</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>784.83362583721282</c:v>
+                  <c:v>784.79918057219834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,130 +1606,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>54.865653392388367</c:v>
+                  <c:v>54.865646236032454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.748256652423713</c:v>
+                  <c:v>56.748247821239048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.076596224895788</c:v>
+                  <c:v>53.076586873867143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.196472053269048</c:v>
+                  <c:v>83.196455483489842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.8755937850752</c:v>
+                  <c:v>106.8755712507495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.05738030833881</c:v>
+                  <c:v>110.0573572131746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118.56398017255421</c:v>
+                  <c:v>118.5639545335836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142.64826742674961</c:v>
+                  <c:v>142.64823490796891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141.1876481583964</c:v>
+                  <c:v>141.18761379675152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.06292243951668</c:v>
+                  <c:v>141.06288733520111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144.9850994188746</c:v>
+                  <c:v>144.9850640712192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.22053137645239</c:v>
+                  <c:v>187.22049159716829</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215.0061736341718</c:v>
+                  <c:v>215.00613132512171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>216.98855968270621</c:v>
+                  <c:v>216.98851905995321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>212.8654163744859</c:v>
+                  <c:v>212.86537942145569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>204.7731577801728</c:v>
+                  <c:v>204.77312426064719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>195.89241371547399</c:v>
+                  <c:v>195.8923824470823</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.47251827983652</c:v>
+                  <c:v>203.47248613720669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>197.99912709708488</c:v>
+                  <c:v>197.99909500853701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>172.84343113130811</c:v>
+                  <c:v>172.84340078172991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154.9560435534851</c:v>
+                  <c:v>154.95601251958311</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>139.71051776255092</c:v>
+                  <c:v>139.71048622398558</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>129.55486826015871</c:v>
+                  <c:v>129.55483548947171</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.2002034246527</c:v>
+                  <c:v>113.20017206005511</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>104.85699401212081</c:v>
+                  <c:v>104.8569642935893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115.2631184491875</c:v>
+                  <c:v>115.2630849913803</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>124.72551403652039</c:v>
+                  <c:v>124.7254778627687</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>122.59085122389909</c:v>
+                  <c:v>122.5908160815336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>107.9606150611621</c:v>
+                  <c:v>107.9605852615279</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96.949955245179041</c:v>
+                  <c:v>96.949932775625243</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87.858584561673453</c:v>
+                  <c:v>87.858567099378433</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.092973537392851</c:v>
+                  <c:v>98.092956217397614</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>118.6464659928871</c:v>
+                  <c:v>118.6464486582381</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>147.03877721975229</c:v>
+                  <c:v>147.0387568850459</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>147.229127509459</c:v>
+                  <c:v>147.22910784992752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>135.98559331171651</c:v>
+                  <c:v>135.98557376365821</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>123.5473277951902</c:v>
+                  <c:v>123.5473099948575</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>119.80834921065879</c:v>
+                  <c:v>119.808328963151</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>110.84421577180521</c:v>
+                  <c:v>110.84419305470381</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96.071700842928976</c:v>
+                  <c:v>96.071677111153434</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>71.997080919577542</c:v>
+                  <c:v>71.997060197462716</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>47.939760988483023</c:v>
+                  <c:v>47.939746789926332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,130 +2661,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>128.95173092425631</c:v>
+                  <c:v>128.95495029788111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.68142661678141</c:v>
+                  <c:v>107.6848200192172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.82034212907311</c:v>
+                  <c:v>105.8237957977114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134.48116449911009</c:v>
+                  <c:v>134.48519674228379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.22389243351319</c:v>
+                  <c:v>133.22760612096329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210.34471114293621</c:v>
+                  <c:v>210.3497968316303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.6051834742957</c:v>
+                  <c:v>275.6115631429073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284.82836906324599</c:v>
+                  <c:v>284.83570456758139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>223.17825176136432</c:v>
+                  <c:v>223.1859744135991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151.5496954732055</c:v>
+                  <c:v>151.55748496447168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130.48887653869571</c:v>
+                  <c:v>130.4964170377188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.2532811156984</c:v>
+                  <c:v>140.26149266822361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>163.9551465380637</c:v>
+                  <c:v>163.96376694109222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>172.98317415149592</c:v>
+                  <c:v>172.9924699959148</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>170.18307496137351</c:v>
+                  <c:v>170.19276717403531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161.7223760450355</c:v>
+                  <c:v>161.73142215036762</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>185.82353439471009</c:v>
+                  <c:v>185.83262649469282</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225.75798247719621</c:v>
+                  <c:v>225.76765382766661</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>184.9496797402648</c:v>
+                  <c:v>184.95732780413979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.91573006399619</c:v>
+                  <c:v>174.9223279810854</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>159.4977048349671</c:v>
+                  <c:v>159.5033715895172</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122.9738341715003</c:v>
+                  <c:v>122.97837199818591</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110.86674318349931</c:v>
+                  <c:v>110.87075712454579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.5744498107977</c:v>
+                  <c:v>100.5780226700998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87.998568033684506</c:v>
+                  <c:v>88.00185461492832</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.708600543733297</c:v>
+                  <c:v>64.711450003623057</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.28563200855281</c:v>
+                  <c:v>60.288352888710307</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.515209785456975</c:v>
+                  <c:v>81.517890457662347</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.007975801839834</c:v>
+                  <c:v>97.011226528355792</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.586838646747964</c:v>
+                  <c:v>97.590515138297548</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.522003188195441</c:v>
+                  <c:v>74.525578610250193</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.655114807821562</c:v>
+                  <c:v>68.658929056743489</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74.228594005119064</c:v>
+                  <c:v>74.232541809489319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>131.55437581177341</c:v>
+                  <c:v>131.55932877192851</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>170.4289220435688</c:v>
+                  <c:v>170.43452678460778</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>187.90968383206632</c:v>
+                  <c:v>187.91573322294468</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>199.11488575220469</c:v>
+                  <c:v>199.12201736567928</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>158.89946696138469</c:v>
+                  <c:v>158.90531138805147</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>131.73540571266241</c:v>
+                  <c:v>131.74114679822083</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>148.5019541505001</c:v>
+                  <c:v>148.50595984966318</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>175.53069965656849</c:v>
+                  <c:v>175.53462913548128</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>143.39245003916639</c:v>
+                  <c:v>143.39628208631731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3713,130 +3713,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>118.2624443966442</c:v>
+                  <c:v>104.1421817246827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.1140373266399</c:v>
+                  <c:v>111.24235569625891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.483296332729</c:v>
+                  <c:v>116.3839599705508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.1632373664701</c:v>
+                  <c:v>118.12283202174419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.5346061443438</c:v>
+                  <c:v>117.37127748922271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.38895706828021</c:v>
+                  <c:v>116.8043553730861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.35693827293881</c:v>
+                  <c:v>118.95661267078901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.87954596038841</c:v>
+                  <c:v>123.1764384973319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145.19095006041178</c:v>
+                  <c:v>132.2750224506357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157.52654943062532</c:v>
+                  <c:v>142.79247412904152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>166.291706080388</c:v>
+                  <c:v>150.5843241853421</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.5578412410851</c:v>
+                  <c:v>154.5929108585741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174.16065837165041</c:v>
+                  <c:v>159.88896553154561</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>184.3459845272142</c:v>
+                  <c:v>169.6054924203965</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195.6445780402909</c:v>
+                  <c:v>180.04844379293701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>203.23518851038219</c:v>
+                  <c:v>186.61976675717719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>205.14357316346459</c:v>
+                  <c:v>187.47915284781558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.78159442180581</c:v>
+                  <c:v>189.27024300442159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>205.61358510209152</c:v>
+                  <c:v>187.96526113618862</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>204.9857334583495</c:v>
+                  <c:v>187.01214946526838</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>201.8999973742099</c:v>
+                  <c:v>184.96027363096152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>203.41916910852419</c:v>
+                  <c:v>187.3418334508923</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>203.46195837520528</c:v>
+                  <c:v>188.00249446246531</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>196.55216573808229</c:v>
+                  <c:v>182.69364798043159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>186.0372318313465</c:v>
+                  <c:v>173.74934993599149</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.0864675227958</c:v>
+                  <c:v>168.7275140845266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>174.77712260897559</c:v>
+                  <c:v>164.54509235489169</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>172.15261776002379</c:v>
+                  <c:v>162.88266243024512</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>183.1843668434058</c:v>
+                  <c:v>174.36103455736438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>195.9628246264526</c:v>
+                  <c:v>187.52166055733218</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>202.89074969324091</c:v>
+                  <c:v>194.82396859847981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>203.35094434250971</c:v>
+                  <c:v>196.3363422988005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>199.6436402374153</c:v>
+                  <c:v>194.37223470997142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>199.46340964706241</c:v>
+                  <c:v>196.62139585801381</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>199.90489072099049</c:v>
+                  <c:v>199.9469926146385</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>197.4344787198595</c:v>
+                  <c:v>199.93036053153332</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>196.71710928997979</c:v>
+                  <c:v>200.53498091804468</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>187.5067824137912</c:v>
+                  <c:v>192.4209357279388</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169.58879576832481</c:v>
+                  <c:v>175.33687366380971</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>161.54876500278999</c:v>
+                  <c:v>167.77772057524291</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>155.78821920307269</c:v>
+                  <c:v>163.12272719709031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>155.03659879612948</c:v>
+                  <c:v>163.88416335366099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4768,130 +4768,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>8.2646344175892832</c:v>
+                  <c:v>8.264769415010413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6072454551151107</c:v>
+                  <c:v>8.6073418311676573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.48621060831168</c:v>
+                  <c:v>15.486438316205749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3013189792368518</c:v>
+                  <c:v>8.3014201678184563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7519364392310282</c:v>
+                  <c:v>4.7520026064646599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5631798884436634</c:v>
+                  <c:v>4.5632778782413039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6104089961342161</c:v>
+                  <c:v>2.6104447758484182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1643225674284938</c:v>
+                  <c:v>3.1644472541761028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5754782323429186</c:v>
+                  <c:v>8.5757628380941995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.814088965512124</c:v>
+                  <c:v>2.8141527666413064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.394943036414082</c:v>
+                  <c:v>1.394986968270904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8143440509806559</c:v>
+                  <c:v>2.8144145084830039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6677807967156006</c:v>
+                  <c:v>6.6679186338451704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2759427148092497</c:v>
+                  <c:v>5.2760119821304698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3864678728585309</c:v>
+                  <c:v>2.3864849768103902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.804291123625571</c:v>
+                  <c:v>1.804301500817836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3737291365656401</c:v>
+                  <c:v>1.373730432163113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4502076430368169</c:v>
+                  <c:v>1.4502202692745061</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7879551897670387</c:v>
+                  <c:v>4.7879960309240923</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1815794500042403</c:v>
+                  <c:v>2.1816014500990191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95685900490201559</c:v>
+                  <c:v>0.95687101820824849</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90170117314539222</c:v>
+                  <c:v>0.90171057736326987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1060132276363819</c:v>
+                  <c:v>1.106027066845495</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9288705727781883</c:v>
+                  <c:v>3.928945561469618</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1634925339912048</c:v>
+                  <c:v>4.1635464426319109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.65918667432622935</c:v>
+                  <c:v>0.65919722722692176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53514404798194171</c:v>
+                  <c:v>0.53515664499904647</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50236732777109383</c:v>
+                  <c:v>0.50237095783352803</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.224539229190557</c:v>
+                  <c:v>1.2245733590832799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.6453258527586949</c:v>
+                  <c:v>3.6454018128445793</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.394818619185985</c:v>
+                  <c:v>3.394869056615287</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3927284314167379</c:v>
+                  <c:v>4.392828803185397</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2282706240971732</c:v>
+                  <c:v>2.2283117466981901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1237389826920601</c:v>
+                  <c:v>1.123758966088124</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4395478771141432</c:v>
+                  <c:v>3.4395967205111249</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1556918926352231</c:v>
+                  <c:v>1.1557128232351779</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.002467694011781</c:v>
+                  <c:v>21.00255288595606</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.147758586836916</c:v>
+                  <c:v>2.1477957220430119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23379914931246121</c:v>
+                  <c:v>0.23380262727182399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.3613398497473693E-2</c:v>
+                  <c:v>8.3614984090430569E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1805677110842439</c:v>
+                  <c:v>2.180597053773798</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.900386692816185</c:v>
+                  <c:v>3.9004715585122569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5663,130 +5663,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0.45570008535297768</c:v>
+                  <c:v>0.45570002720398217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42884560313019199</c:v>
+                  <c:v>0.42884554888913545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2577322118130449</c:v>
+                  <c:v>0.25773217702124718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31053498613923963</c:v>
+                  <c:v>0.31053494478801902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6164496736386228</c:v>
+                  <c:v>0.61644958345049727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1792701363201199</c:v>
+                  <c:v>0.179270112165376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31105892827192394</c:v>
+                  <c:v>0.3110588866656474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35248953874974309</c:v>
+                  <c:v>0.35248949411748182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54416066482213188</c:v>
+                  <c:v>0.54416060710963032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3066186203871798</c:v>
+                  <c:v>0.30661858202135689</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18218727003779711</c:v>
+                  <c:v>0.18218724741948208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31751315237825128</c:v>
+                  <c:v>0.31751311787948894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2348062651325461</c:v>
+                  <c:v>0.2348062383600327</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25869607947220763</c:v>
+                  <c:v>0.25869604688903158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2963452505983345</c:v>
+                  <c:v>0.29634521373868405</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16421731366834899</c:v>
+                  <c:v>0.1642172890782774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1545440252010318</c:v>
+                  <c:v>0.1545439998868324</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19651610776158912</c:v>
+                  <c:v>0.1965160720173407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16775157461626941</c:v>
+                  <c:v>0.16775154026148689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17777821586733661</c:v>
+                  <c:v>0.1777781750870322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14386662711009368</c:v>
+                  <c:v>0.14386659541717201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13380641029539389</c:v>
+                  <c:v>0.13380638177836082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22176437330805129</c:v>
+                  <c:v>0.2217643119909618</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18455536053162178</c:v>
+                  <c:v>0.18455531500750871</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16940004486064089</c:v>
+                  <c:v>0.16940000889344092</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1026316644954019</c:v>
+                  <c:v>0.1026316457151588</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1218978717547905</c:v>
+                  <c:v>0.1218978545991475</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.6539578938931878E-2</c:v>
+                  <c:v>9.6539563204394774E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2423495334941399</c:v>
+                  <c:v>0.2423494992265508</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.260293953205397</c:v>
+                  <c:v>0.26029391787725342</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.31704325595350341</c:v>
+                  <c:v>0.31704322234813148</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20949106782232021</c:v>
+                  <c:v>0.20949104298923429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21781999888584111</c:v>
+                  <c:v>0.2178199737608289</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.16682283664082931</c:v>
+                  <c:v>0.1668228180379252</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2125786335848224</c:v>
+                  <c:v>0.2125786064818701</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21545415530238421</c:v>
+                  <c:v>0.21545412374015888</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1580845094052033</c:v>
+                  <c:v>0.15808448398471711</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3801287647354751E-2</c:v>
+                  <c:v>6.3801277899510733E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5213390437946773E-2</c:v>
+                  <c:v>3.521338540488847E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6926889173103189E-2</c:v>
+                  <c:v>3.6926883574481928E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7957707514764333E-2</c:v>
+                  <c:v>5.7957698771724304E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.12859522942385632</c:v>
+                  <c:v>0.1285952106653627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6558,130 +6558,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0.15997640462875681</c:v>
+                  <c:v>0.15041822937917881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17489927266173969</c:v>
+                  <c:v>0.16593392986274511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29106512553102792</c:v>
+                  <c:v>0.26466379190029865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23222760184603691</c:v>
+                  <c:v>0.18485465489327632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17395507983235059</c:v>
+                  <c:v>0.15753568376020471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12333851894431169</c:v>
+                  <c:v>0.1743428890812779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19712418060658979</c:v>
+                  <c:v>0.1610599991462828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28709888965499053</c:v>
+                  <c:v>0.26007514515802049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4018236713491023</c:v>
+                  <c:v>0.4087321671641016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20707822534376799</c:v>
+                  <c:v>0.15949424750696661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2474992080498753</c:v>
+                  <c:v>0.2123482219376705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3109962696628239</c:v>
+                  <c:v>0.3798973843436827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35928827088915849</c:v>
+                  <c:v>0.27881792844766196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16453321192700129</c:v>
+                  <c:v>0.16247328161124591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29815566038451791</c:v>
+                  <c:v>0.35105940006769643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31714899211037789</c:v>
+                  <c:v>0.27322869091481261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1636323010550835</c:v>
+                  <c:v>0.1615290685767824</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18199418664851191</c:v>
+                  <c:v>0.21491943484260048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24734273787295399</c:v>
+                  <c:v>0.22621142594332519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20546813987015991</c:v>
+                  <c:v>0.1971700414917705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25310101808884516</c:v>
+                  <c:v>0.27612424136669073</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32397092996886862</c:v>
+                  <c:v>0.33654466316170506</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2342029700906782</c:v>
+                  <c:v>0.22379188808652972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69339239120766505</c:v>
+                  <c:v>0.72700316478750182</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16635037887164461</c:v>
+                  <c:v>0.16128471144132681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3177904716340984</c:v>
+                  <c:v>0.34648867720842041</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.24694935841371701</c:v>
+                  <c:v>0.25550645726006627</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34075877128817866</c:v>
+                  <c:v>0.38397375291661806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32778919585619642</c:v>
+                  <c:v>0.34391484668716255</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3752256406333101</c:v>
+                  <c:v>0.42738214961375554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1445582455884156</c:v>
+                  <c:v>0.1338604895412546</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.29124187568225618</c:v>
+                  <c:v>0.31903359086562127</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1271930093600899</c:v>
+                  <c:v>0.1253211057594891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13404839374343272</c:v>
+                  <c:v>0.14964644808883582</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26039216672834592</c:v>
+                  <c:v>0.27673657169356369</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.31633493117210437</c:v>
+                  <c:v>0.35775360152817259</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.41492310567048241</c:v>
+                  <c:v>0.45463399269404442</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29587536173734025</c:v>
+                  <c:v>0.35075953095926282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.8979703723076337E-2</c:v>
+                  <c:v>9.2471750279520842E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.70109643790271747</c:v>
+                  <c:v>0.78435156170384057</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23823786481161471</c:v>
+                  <c:v>0.2148387298394607</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.18734951930112512</c:v>
+                  <c:v>0.1823257070154419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7445,130 +7445,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>8.2646344175892832</c:v>
+                  <c:v>8.264769415010413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6072454551151107</c:v>
+                  <c:v>8.6073418311676573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.48621060831168</c:v>
+                  <c:v>15.486438316205749</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3013189792368518</c:v>
+                  <c:v>8.3014201678184563</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7519364392310282</c:v>
+                  <c:v>4.7520026064646599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5631798884436634</c:v>
+                  <c:v>4.5632778782413039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6104089961342161</c:v>
+                  <c:v>2.6104447758484182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.1643225674284938</c:v>
+                  <c:v>3.1644472541761028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.5754782323429186</c:v>
+                  <c:v>8.5757628380941995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.814088965512124</c:v>
+                  <c:v>2.8141527666413064</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.394943036414082</c:v>
+                  <c:v>1.394986968270904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8143440509806559</c:v>
+                  <c:v>2.8144145084830039</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6677807967156006</c:v>
+                  <c:v>6.6679186338451704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2759427148092497</c:v>
+                  <c:v>5.2760119821304698</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3864678728585309</c:v>
+                  <c:v>2.3864849768103902</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.804291123625571</c:v>
+                  <c:v>1.804301500817836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3737291365656401</c:v>
+                  <c:v>1.373730432163113</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4502076430368169</c:v>
+                  <c:v>1.4502202692745061</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.7879551897670387</c:v>
+                  <c:v>4.7879960309240923</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1815794500042403</c:v>
+                  <c:v>2.1816014500990191</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.95685900490201559</c:v>
+                  <c:v>0.95687101820824849</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90170117314539222</c:v>
+                  <c:v>0.90171057736326987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.1060132276363819</c:v>
+                  <c:v>1.106027066845495</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9288705727781883</c:v>
+                  <c:v>3.928945561469618</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.1634925339912048</c:v>
+                  <c:v>4.1635464426319109</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.65918667432622935</c:v>
+                  <c:v>0.65919722722692176</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.53514404798194171</c:v>
+                  <c:v>0.53515664499904647</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.50236732777109383</c:v>
+                  <c:v>0.50237095783352803</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.224539229190557</c:v>
+                  <c:v>1.2245733590832799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.6453258527586949</c:v>
+                  <c:v>3.6454018128445793</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.394818619185985</c:v>
+                  <c:v>3.394869056615287</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.3927284314167379</c:v>
+                  <c:v>4.392828803185397</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2282706240971732</c:v>
+                  <c:v>2.2283117466981901</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.1237389826920601</c:v>
+                  <c:v>1.123758966088124</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.4395478771141432</c:v>
+                  <c:v>3.4395967205111249</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.1556918926352231</c:v>
+                  <c:v>1.1557128232351779</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>21.002467694011781</c:v>
+                  <c:v>21.00255288595606</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.147758586836916</c:v>
+                  <c:v>2.1477957220430119</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.23379914931246121</c:v>
+                  <c:v>0.23380262727182399</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.3613398497473693E-2</c:v>
+                  <c:v>8.3614984090430569E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1805677110842439</c:v>
+                  <c:v>2.180597053773798</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.900386692816185</c:v>
+                  <c:v>3.9004715585122569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8508,130 +8508,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0.45570008535297768</c:v>
+                  <c:v>0.45570002720398217</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42884560313019199</c:v>
+                  <c:v>0.42884554888913545</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2577322118130449</c:v>
+                  <c:v>0.25773217702124718</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31053498613923963</c:v>
+                  <c:v>0.31053494478801902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6164496736386228</c:v>
+                  <c:v>0.61644958345049727</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1792701363201199</c:v>
+                  <c:v>0.179270112165376</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31105892827192394</c:v>
+                  <c:v>0.3110588866656474</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35248953874974309</c:v>
+                  <c:v>0.35248949411748182</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54416066482213188</c:v>
+                  <c:v>0.54416060710963032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3066186203871798</c:v>
+                  <c:v>0.30661858202135689</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18218727003779711</c:v>
+                  <c:v>0.18218724741948208</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.31751315237825128</c:v>
+                  <c:v>0.31751311787948894</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2348062651325461</c:v>
+                  <c:v>0.2348062383600327</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25869607947220763</c:v>
+                  <c:v>0.25869604688903158</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2963452505983345</c:v>
+                  <c:v>0.29634521373868405</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.16421731366834899</c:v>
+                  <c:v>0.1642172890782774</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1545440252010318</c:v>
+                  <c:v>0.1545439998868324</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.19651610776158912</c:v>
+                  <c:v>0.1965160720173407</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.16775157461626941</c:v>
+                  <c:v>0.16775154026148689</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.17777821586733661</c:v>
+                  <c:v>0.1777781750870322</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.14386662711009368</c:v>
+                  <c:v>0.14386659541717201</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13380641029539389</c:v>
+                  <c:v>0.13380638177836082</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22176437330805129</c:v>
+                  <c:v>0.2217643119909618</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.18455536053162178</c:v>
+                  <c:v>0.18455531500750871</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16940004486064089</c:v>
+                  <c:v>0.16940000889344092</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1026316644954019</c:v>
+                  <c:v>0.1026316457151588</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1218978717547905</c:v>
+                  <c:v>0.1218978545991475</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.6539578938931878E-2</c:v>
+                  <c:v>9.6539563204394774E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2423495334941399</c:v>
+                  <c:v>0.2423494992265508</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.260293953205397</c:v>
+                  <c:v>0.26029391787725342</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.31704325595350341</c:v>
+                  <c:v>0.31704322234813148</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.20949106782232021</c:v>
+                  <c:v>0.20949104298923429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.21781999888584111</c:v>
+                  <c:v>0.2178199737608289</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.16682283664082931</c:v>
+                  <c:v>0.1668228180379252</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.2125786335848224</c:v>
+                  <c:v>0.2125786064818701</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21545415530238421</c:v>
+                  <c:v>0.21545412374015888</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1580845094052033</c:v>
+                  <c:v>0.15808448398471711</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3801287647354751E-2</c:v>
+                  <c:v>6.3801277899510733E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.5213390437946773E-2</c:v>
+                  <c:v>3.521338540488847E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.6926889173103189E-2</c:v>
+                  <c:v>3.6926883574481928E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7957707514764333E-2</c:v>
+                  <c:v>5.7957698771724304E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.12859522942385632</c:v>
+                  <c:v>0.1285952106653627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9571,130 +9571,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>0.15997640462875681</c:v>
+                  <c:v>0.15041822937917881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17489927266173969</c:v>
+                  <c:v>0.16593392986274511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.29106512553102792</c:v>
+                  <c:v>0.26466379190029865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23222760184603691</c:v>
+                  <c:v>0.18485465489327632</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17395507983235059</c:v>
+                  <c:v>0.15753568376020471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12333851894431169</c:v>
+                  <c:v>0.1743428890812779</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19712418060658979</c:v>
+                  <c:v>0.1610599991462828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28709888965499053</c:v>
+                  <c:v>0.26007514515802049</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4018236713491023</c:v>
+                  <c:v>0.4087321671641016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20707822534376799</c:v>
+                  <c:v>0.15949424750696661</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2474992080498753</c:v>
+                  <c:v>0.2123482219376705</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3109962696628239</c:v>
+                  <c:v>0.3798973843436827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35928827088915849</c:v>
+                  <c:v>0.27881792844766196</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16453321192700129</c:v>
+                  <c:v>0.16247328161124591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29815566038451791</c:v>
+                  <c:v>0.35105940006769643</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31714899211037789</c:v>
+                  <c:v>0.27322869091481261</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1636323010550835</c:v>
+                  <c:v>0.1615290685767824</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.18199418664851191</c:v>
+                  <c:v>0.21491943484260048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24734273787295399</c:v>
+                  <c:v>0.22621142594332519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20546813987015991</c:v>
+                  <c:v>0.1971700414917705</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.25310101808884516</c:v>
+                  <c:v>0.27612424136669073</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.32397092996886862</c:v>
+                  <c:v>0.33654466316170506</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2342029700906782</c:v>
+                  <c:v>0.22379188808652972</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69339239120766505</c:v>
+                  <c:v>0.72700316478750182</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.16635037887164461</c:v>
+                  <c:v>0.16128471144132681</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.3177904716340984</c:v>
+                  <c:v>0.34648867720842041</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.24694935841371701</c:v>
+                  <c:v>0.25550645726006627</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34075877128817866</c:v>
+                  <c:v>0.38397375291661806</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32778919585619642</c:v>
+                  <c:v>0.34391484668716255</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3752256406333101</c:v>
+                  <c:v>0.42738214961375554</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1445582455884156</c:v>
+                  <c:v>0.1338604895412546</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.29124187568225618</c:v>
+                  <c:v>0.31903359086562127</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1271930093600899</c:v>
+                  <c:v>0.1253211057594891</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13404839374343272</c:v>
+                  <c:v>0.14964644808883582</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.26039216672834592</c:v>
+                  <c:v>0.27673657169356369</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.31633493117210437</c:v>
+                  <c:v>0.35775360152817259</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.41492310567048241</c:v>
+                  <c:v>0.45463399269404442</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.29587536173734025</c:v>
+                  <c:v>0.35075953095926282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.8979703723076337E-2</c:v>
+                  <c:v>9.2471750279520842E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.70109643790271747</c:v>
+                  <c:v>0.78435156170384057</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.23823786481161471</c:v>
+                  <c:v>0.2148387298394607</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.18734951930112512</c:v>
+                  <c:v>0.1823257070154419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11206,130 +11206,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>186.5128732466913</c:v>
+                  <c:v>186.51287460203451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.4300056675977</c:v>
+                  <c:v>249.43000613704538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319.84833264487122</c:v>
+                  <c:v>319.84833443278177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>373.67685113562038</c:v>
+                  <c:v>373.676855402559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>409.37203550857674</c:v>
+                  <c:v>409.37204701597369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>447.77923711312496</c:v>
+                  <c:v>447.77926002168778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465.32734777353539</c:v>
+                  <c:v>465.32737579750852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>459.51115296749481</c:v>
+                  <c:v>459.5111832996418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>477.78391429659939</c:v>
+                  <c:v>477.78394714849941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>516.69927321300315</c:v>
+                  <c:v>516.69930866376296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>521.14549900880502</c:v>
+                  <c:v>521.14553411164502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>572.78602503034858</c:v>
+                  <c:v>572.78606192814595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>613.52125343016178</c:v>
+                  <c:v>613.52128848274424</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>633.25658395689186</c:v>
+                  <c:v>633.25661503327478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>620.1986379201453</c:v>
+                  <c:v>620.19866234697611</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>604.06866272154616</c:v>
+                  <c:v>604.0686808113619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>570.09926424100593</c:v>
+                  <c:v>570.09927959486777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>547.3409485190416</c:v>
+                  <c:v>547.34096570309885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>525.81689845515439</c:v>
+                  <c:v>525.81691931672844</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>480.25350735219041</c:v>
+                  <c:v>480.25353231411674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>439.89881327219121</c:v>
+                  <c:v>439.8988354775571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>401.53423662879521</c:v>
+                  <c:v>401.53425746648901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>374.07276880251766</c:v>
+                  <c:v>374.07278684616779</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>351.54121949766318</c:v>
+                  <c:v>351.54123302150708</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>352.69940306724004</c:v>
+                  <c:v>352.69941246276943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>364.15956671626373</c:v>
+                  <c:v>364.15957434448052</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>361.19766650339591</c:v>
+                  <c:v>361.19767378431459</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>335.63000277652429</c:v>
+                  <c:v>335.63000725229983</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>307.69567709807916</c:v>
+                  <c:v>307.69568315859527</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>312.61862865694013</c:v>
+                  <c:v>312.61864388241202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>346.87751701191479</c:v>
+                  <c:v>346.87753685438486</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>396.06513065713563</c:v>
+                  <c:v>396.06514249073109</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>435.87415764331121</c:v>
+                  <c:v>435.87415951050178</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>463.73956464490135</c:v>
+                  <c:v>463.73955313595405</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>446.21694368015329</c:v>
+                  <c:v>446.21692728667938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>417.15679893006086</c:v>
+                  <c:v>417.15678879810713</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>398.23104340553704</c:v>
+                  <c:v>398.23105414431615</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>377.57327890043751</c:v>
+                  <c:v>377.57330454268913</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>318.59136583994717</c:v>
+                  <c:v>318.59139427958951</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>245.14261577222902</c:v>
+                  <c:v>245.14263623747041</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177.45151207110592</c:v>
+                  <c:v>177.45152296484341</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>134.2927818144457</c:v>
+                  <c:v>134.29278832749571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12093,130 +12093,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>261.69715602334742</c:v>
+                  <c:v>241.76976491665351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260.33631069603098</c:v>
+                  <c:v>240.94404128331922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>267.25496286500686</c:v>
+                  <c:v>247.24629260298371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276.57332196570576</c:v>
+                  <c:v>254.1527083828112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284.40449980142699</c:v>
+                  <c:v>259.98303897876548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>289.13163736322241</c:v>
+                  <c:v>266.28704707285641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>297.58712413983039</c:v>
+                  <c:v>274.1540152757596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308.43529285813571</c:v>
+                  <c:v>284.18060795281752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>330.80168245122093</c:v>
+                  <c:v>306.92073459472897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>350.5435920935891</c:v>
+                  <c:v>324.80805992875491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370.54115464829079</c:v>
+                  <c:v>342.45247070391417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>388.51388595580119</c:v>
+                  <c:v>362.88106436669125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>409.53018431592596</c:v>
+                  <c:v>381.51385794289843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>424.92871918103305</c:v>
+                  <c:v>396.416964361635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>437.2821619658244</c:v>
+                  <c:v>411.46998865191244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>447.31491040141742</c:v>
+                  <c:v>421.66649669201496</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>444.13970904986434</c:v>
+                  <c:v>419.44054064204789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>438.69155484948919</c:v>
+                  <c:v>416.73952421881552</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>426.05032726961969</c:v>
+                  <c:v>405.11178366430119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>417.28373056605568</c:v>
+                  <c:v>397.28523906124235</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>406.52690819045159</c:v>
+                  <c:v>388.72812831454007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>407.27859073062211</c:v>
+                  <c:v>391.86432974107481</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>410.05138964509524</c:v>
+                  <c:v>396.14523940249001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>432.93418576407259</c:v>
+                  <c:v>422.34259815208395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>434.92055766867128</c:v>
+                  <c:v>426.48288570675089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>444.86071847831681</c:v>
+                  <c:v>439.74875410642704</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>449.43627533697054</c:v>
+                  <c:v>446.84417589533672</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>447.50972093414356</c:v>
+                  <c:v>448.50567259703831</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>460.5521050007286</c:v>
+                  <c:v>464.6466948221194</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>470.90743494968712</c:v>
+                  <c:v>479.6232193874971</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>462.7895790684401</c:v>
+                  <c:v>473.50294003037391</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>458.83441699742491</c:v>
+                  <c:v>472.19390532154534</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>441.67796051044587</c:v>
+                  <c:v>455.98482084410387</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>424.61369859879636</c:v>
+                  <c:v>440.00050413054191</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>411.34011921182571</c:v>
+                  <c:v>427.74041546102529</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>395.3741289050227</c:v>
+                  <c:v>414.04195825282795</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>399.5506238854839</c:v>
+                  <c:v>420.90958255687127</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>402.95361687364357</c:v>
+                  <c:v>428.46623157866139</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>382.8842043845932</c:v>
+                  <c:v>410.32328265322928</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>406.90701981339231</c:v>
+                  <c:v>439.52181566485149</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>419.60898356939759</c:v>
+                  <c:v>453.40101523021383</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419.96680741261349</c:v>
+                  <c:v>453.66285178767691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12985,130 +12985,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1287.2772752782059</c:v>
+                  <c:v>1287.2398110973161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1493.5079552293132</c:v>
+                  <c:v>1493.465922153727</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2034.511609640206</c:v>
+                  <c:v>2034.456893588781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2193.9491351668962</c:v>
+                  <c:v>2193.8917593016149</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2299.1745217484468</c:v>
+                  <c:v>2299.1141955319949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2181.8976314603869</c:v>
+                  <c:v>2181.8368845879527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1873.5743784715171</c:v>
+                  <c:v>1873.5177514517109</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1625.5590314028209</c:v>
+                  <c:v>1625.4966690614319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1441.882969475563</c:v>
+                  <c:v>1441.8133554747221</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1133.2423932611239</c:v>
+                  <c:v>1133.1756215383939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1026.8423185689649</c:v>
+                  <c:v>1026.7789366960881</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1002.893398811499</c:v>
+                  <c:v>1002.831544989106</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1126.926318756618</c:v>
+                  <c:v>1126.863694298097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1226.656585308494</c:v>
+                  <c:v>1226.5957083751521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1207.315842264305</c:v>
+                  <c:v>1207.2594761460291</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1125.8080164781181</c:v>
+                  <c:v>1125.758129378429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1039.715345826603</c:v>
+                  <c:v>1039.6719841688109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>858.48538003192857</c:v>
+                  <c:v>858.44921455432507</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>833.31405869497723</c:v>
+                  <c:v>833.28315462214857</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>711.68671074917302</c:v>
+                  <c:v>711.66137363753649</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>684.1584742486649</c:v>
+                  <c:v>684.13707177102754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>628.5692305461406</c:v>
+                  <c:v>628.55056974060756</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>457.24620050789099</c:v>
+                  <c:v>457.23150973495291</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>472.0153468017474</c:v>
+                  <c:v>471.99982536725616</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>536.34608441857233</c:v>
+                  <c:v>536.32935361108071</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>599.28287504453556</c:v>
+                  <c:v>599.26406863113482</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>602.09296130758901</c:v>
+                  <c:v>602.07435467119342</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>485.79212261799751</c:v>
+                  <c:v>485.77590419094116</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>404.03260285571281</c:v>
+                  <c:v>404.01741482019082</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>403.54674065349195</c:v>
+                  <c:v>403.52918153675529</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>443.00738840552754</c:v>
+                  <c:v>442.98748278890338</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>637.51223870851868</c:v>
+                  <c:v>637.48576402225115</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>894.42544636112052</c:v>
+                  <c:v>894.38866555280651</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>895.58860934247969</c:v>
+                  <c:v>895.54718921361564</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>875.57652561118823</c:v>
+                  <c:v>875.53281698804915</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>894.52847269757012</c:v>
+                  <c:v>894.47867487857638</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1170.9493989373159</c:v>
+                  <c:v>1170.9118624570901</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1727.4745650246839</c:v>
+                  <c:v>1727.467358527558</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1404.6095133935321</c:v>
+                  <c:v>1404.5960696939969</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1291.0695646892559</c:v>
+                  <c:v>1291.057036330021</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>946.4635135120858</c:v>
+                  <c:v>946.43925093828796</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>784.83362583721282</c:v>
+                  <c:v>784.79918057219834</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14040,130 +14040,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>186.5128732466913</c:v>
+                  <c:v>186.51287460203451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>249.4300056675977</c:v>
+                  <c:v>249.43000613704538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>319.84833264487122</c:v>
+                  <c:v>319.84833443278177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>373.67685113562038</c:v>
+                  <c:v>373.676855402559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>409.37203550857674</c:v>
+                  <c:v>409.37204701597369</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>447.77923711312496</c:v>
+                  <c:v>447.77926002168778</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>465.32734777353539</c:v>
+                  <c:v>465.32737579750852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>459.51115296749481</c:v>
+                  <c:v>459.5111832996418</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>477.78391429659939</c:v>
+                  <c:v>477.78394714849941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>516.69927321300315</c:v>
+                  <c:v>516.69930866376296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>521.14549900880502</c:v>
+                  <c:v>521.14553411164502</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>572.78602503034858</c:v>
+                  <c:v>572.78606192814595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>613.52125343016178</c:v>
+                  <c:v>613.52128848274424</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>633.25658395689186</c:v>
+                  <c:v>633.25661503327478</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>620.1986379201453</c:v>
+                  <c:v>620.19866234697611</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>604.06866272154616</c:v>
+                  <c:v>604.0686808113619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>570.09926424100593</c:v>
+                  <c:v>570.09927959486777</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>547.3409485190416</c:v>
+                  <c:v>547.34096570309885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>525.81689845515439</c:v>
+                  <c:v>525.81691931672844</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>480.25350735219041</c:v>
+                  <c:v>480.25353231411674</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>439.89881327219121</c:v>
+                  <c:v>439.8988354775571</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>401.53423662879521</c:v>
+                  <c:v>401.53425746648901</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>374.07276880251766</c:v>
+                  <c:v>374.07278684616779</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>351.54121949766318</c:v>
+                  <c:v>351.54123302150708</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>352.69940306724004</c:v>
+                  <c:v>352.69941246276943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>364.15956671626373</c:v>
+                  <c:v>364.15957434448052</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>361.19766650339591</c:v>
+                  <c:v>361.19767378431459</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>335.63000277652429</c:v>
+                  <c:v>335.63000725229983</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>307.69567709807916</c:v>
+                  <c:v>307.69568315859527</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>312.61862865694013</c:v>
+                  <c:v>312.61864388241202</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>346.87751701191479</c:v>
+                  <c:v>346.87753685438486</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>396.06513065713563</c:v>
+                  <c:v>396.06514249073109</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>435.87415764331121</c:v>
+                  <c:v>435.87415951050178</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>463.73956464490135</c:v>
+                  <c:v>463.73955313595405</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>446.21694368015329</c:v>
+                  <c:v>446.21692728667938</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>417.15679893006086</c:v>
+                  <c:v>417.15678879810713</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>398.23104340553704</c:v>
+                  <c:v>398.23105414431615</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>377.57327890043751</c:v>
+                  <c:v>377.57330454268913</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>318.59136583994717</c:v>
+                  <c:v>318.59139427958951</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>245.14261577222902</c:v>
+                  <c:v>245.14263623747041</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>177.45151207110592</c:v>
+                  <c:v>177.45152296484341</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>134.2927818144457</c:v>
+                  <c:v>134.29278832749571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15095,130 +15095,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>261.69715602334742</c:v>
+                  <c:v>241.76976491665351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260.33631069603098</c:v>
+                  <c:v>240.94404128331922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>267.25496286500686</c:v>
+                  <c:v>247.24629260298371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>276.57332196570576</c:v>
+                  <c:v>254.1527083828112</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>284.40449980142699</c:v>
+                  <c:v>259.98303897876548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>289.13163736322241</c:v>
+                  <c:v>266.28704707285641</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>297.58712413983039</c:v>
+                  <c:v>274.1540152757596</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>308.43529285813571</c:v>
+                  <c:v>284.18060795281752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>330.80168245122093</c:v>
+                  <c:v>306.92073459472897</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>350.5435920935891</c:v>
+                  <c:v>324.80805992875491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>370.54115464829079</c:v>
+                  <c:v>342.45247070391417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>388.51388595580119</c:v>
+                  <c:v>362.88106436669125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>409.53018431592596</c:v>
+                  <c:v>381.51385794289843</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>424.92871918103305</c:v>
+                  <c:v>396.416964361635</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>437.2821619658244</c:v>
+                  <c:v>411.46998865191244</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>447.31491040141742</c:v>
+                  <c:v>421.66649669201496</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>444.13970904986434</c:v>
+                  <c:v>419.44054064204789</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>438.69155484948919</c:v>
+                  <c:v>416.73952421881552</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>426.05032726961969</c:v>
+                  <c:v>405.11178366430119</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>417.28373056605568</c:v>
+                  <c:v>397.28523906124235</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>406.52690819045159</c:v>
+                  <c:v>388.72812831454007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>407.27859073062211</c:v>
+                  <c:v>391.86432974107481</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>410.05138964509524</c:v>
+                  <c:v>396.14523940249001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>432.93418576407259</c:v>
+                  <c:v>422.34259815208395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>434.92055766867128</c:v>
+                  <c:v>426.48288570675089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>444.86071847831681</c:v>
+                  <c:v>439.74875410642704</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>449.43627533697054</c:v>
+                  <c:v>446.84417589533672</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>447.50972093414356</c:v>
+                  <c:v>448.50567259703831</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>460.5521050007286</c:v>
+                  <c:v>464.6466948221194</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>470.90743494968712</c:v>
+                  <c:v>479.6232193874971</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>462.7895790684401</c:v>
+                  <c:v>473.50294003037391</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>458.83441699742491</c:v>
+                  <c:v>472.19390532154534</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>441.67796051044587</c:v>
+                  <c:v>455.98482084410387</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>424.61369859879636</c:v>
+                  <c:v>440.00050413054191</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>411.34011921182571</c:v>
+                  <c:v>427.74041546102529</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>395.3741289050227</c:v>
+                  <c:v>414.04195825282795</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>399.5506238854839</c:v>
+                  <c:v>420.90958255687127</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>402.95361687364357</c:v>
+                  <c:v>428.46623157866139</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>382.8842043845932</c:v>
+                  <c:v>410.32328265322928</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>406.90701981339231</c:v>
+                  <c:v>439.52181566485149</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>419.60898356939759</c:v>
+                  <c:v>453.40101523021383</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>419.96680741261349</c:v>
+                  <c:v>453.66285178767691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16150,130 +16150,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>54.865653392388367</c:v>
+                  <c:v>54.865646236032454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.748256652423713</c:v>
+                  <c:v>56.748247821239048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.076596224895788</c:v>
+                  <c:v>53.076586873867143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.196472053269048</c:v>
+                  <c:v>83.196455483489842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.8755937850752</c:v>
+                  <c:v>106.8755712507495</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>110.05738030833881</c:v>
+                  <c:v>110.0573572131746</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118.56398017255421</c:v>
+                  <c:v>118.5639545335836</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>142.64826742674961</c:v>
+                  <c:v>142.64823490796891</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>141.1876481583964</c:v>
+                  <c:v>141.18761379675152</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.06292243951668</c:v>
+                  <c:v>141.06288733520111</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>144.9850994188746</c:v>
+                  <c:v>144.9850640712192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>187.22053137645239</c:v>
+                  <c:v>187.22049159716829</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>215.0061736341718</c:v>
+                  <c:v>215.00613132512171</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>216.98855968270621</c:v>
+                  <c:v>216.98851905995321</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>212.8654163744859</c:v>
+                  <c:v>212.86537942145569</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>204.7731577801728</c:v>
+                  <c:v>204.77312426064719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>195.89241371547399</c:v>
+                  <c:v>195.8923824470823</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>203.47251827983652</c:v>
+                  <c:v>203.47248613720669</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>197.99912709708488</c:v>
+                  <c:v>197.99909500853701</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>172.84343113130811</c:v>
+                  <c:v>172.84340078172991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>154.9560435534851</c:v>
+                  <c:v>154.95601251958311</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>139.71051776255092</c:v>
+                  <c:v>139.71048622398558</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>129.55486826015871</c:v>
+                  <c:v>129.55483548947171</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113.2002034246527</c:v>
+                  <c:v>113.20017206005511</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>104.85699401212081</c:v>
+                  <c:v>104.8569642935893</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115.2631184491875</c:v>
+                  <c:v>115.2630849913803</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>124.72551403652039</c:v>
+                  <c:v>124.7254778627687</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>122.59085122389909</c:v>
+                  <c:v>122.5908160815336</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>107.9606150611621</c:v>
+                  <c:v>107.9605852615279</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96.949955245179041</c:v>
+                  <c:v>96.949932775625243</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>87.858584561673453</c:v>
+                  <c:v>87.858567099378433</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.092973537392851</c:v>
+                  <c:v>98.092956217397614</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>118.6464659928871</c:v>
+                  <c:v>118.6464486582381</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>147.03877721975229</c:v>
+                  <c:v>147.0387568850459</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>147.229127509459</c:v>
+                  <c:v>147.22910784992752</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>135.98559331171651</c:v>
+                  <c:v>135.98557376365821</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>123.5473277951902</c:v>
+                  <c:v>123.5473099948575</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>119.80834921065879</c:v>
+                  <c:v>119.808328963151</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>110.84421577180521</c:v>
+                  <c:v>110.84419305470381</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96.071700842928976</c:v>
+                  <c:v>96.071677111153434</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>71.997080919577542</c:v>
+                  <c:v>71.997060197462716</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>47.939760988483023</c:v>
+                  <c:v>47.939746789926332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17037,130 +17037,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>128.95173092425631</c:v>
+                  <c:v>128.95495029788111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107.68142661678141</c:v>
+                  <c:v>107.6848200192172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.82034212907311</c:v>
+                  <c:v>105.8237957977114</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134.48116449911009</c:v>
+                  <c:v>134.48519674228379</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>133.22389243351319</c:v>
+                  <c:v>133.22760612096329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210.34471114293621</c:v>
+                  <c:v>210.3497968316303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275.6051834742957</c:v>
+                  <c:v>275.6115631429073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284.82836906324599</c:v>
+                  <c:v>284.83570456758139</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>223.17825176136432</c:v>
+                  <c:v>223.1859744135991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151.5496954732055</c:v>
+                  <c:v>151.55748496447168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130.48887653869571</c:v>
+                  <c:v>130.4964170377188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>140.2532811156984</c:v>
+                  <c:v>140.26149266822361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>163.9551465380637</c:v>
+                  <c:v>163.96376694109222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>172.98317415149592</c:v>
+                  <c:v>172.9924699959148</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>170.18307496137351</c:v>
+                  <c:v>170.19276717403531</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>161.7223760450355</c:v>
+                  <c:v>161.73142215036762</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>185.82353439471009</c:v>
+                  <c:v>185.83262649469282</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>225.75798247719621</c:v>
+                  <c:v>225.76765382766661</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>184.9496797402648</c:v>
+                  <c:v>184.95732780413979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>174.91573006399619</c:v>
+                  <c:v>174.9223279810854</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>159.4977048349671</c:v>
+                  <c:v>159.5033715895172</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>122.9738341715003</c:v>
+                  <c:v>122.97837199818591</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110.86674318349931</c:v>
+                  <c:v>110.87075712454579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100.5744498107977</c:v>
+                  <c:v>100.5780226700998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87.998568033684506</c:v>
+                  <c:v>88.00185461492832</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64.708600543733297</c:v>
+                  <c:v>64.711450003623057</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>60.28563200855281</c:v>
+                  <c:v>60.288352888710307</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.515209785456975</c:v>
+                  <c:v>81.517890457662347</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.007975801839834</c:v>
+                  <c:v>97.011226528355792</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.586838646747964</c:v>
+                  <c:v>97.590515138297548</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>74.522003188195441</c:v>
+                  <c:v>74.525578610250193</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>68.655114807821562</c:v>
+                  <c:v>68.658929056743489</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74.228594005119064</c:v>
+                  <c:v>74.232541809489319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>131.55437581177341</c:v>
+                  <c:v>131.55932877192851</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>170.4289220435688</c:v>
+                  <c:v>170.43452678460778</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>187.90968383206632</c:v>
+                  <c:v>187.91573322294468</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>199.11488575220469</c:v>
+                  <c:v>199.12201736567928</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>158.89946696138469</c:v>
+                  <c:v>158.90531138805147</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>131.73540571266241</c:v>
+                  <c:v>131.74114679822083</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>148.5019541505001</c:v>
+                  <c:v>148.50595984966318</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>175.53069965656849</c:v>
+                  <c:v>175.53462913548128</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>143.39245003916639</c:v>
+                  <c:v>143.39628208631731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17921,130 +17921,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>118.2624443966442</c:v>
+                  <c:v>104.1421817246827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.1140373266399</c:v>
+                  <c:v>111.24235569625891</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>130.483296332729</c:v>
+                  <c:v>116.3839599705508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.1632373664701</c:v>
+                  <c:v>118.12283202174419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.5346061443438</c:v>
+                  <c:v>117.37127748922271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>128.38895706828021</c:v>
+                  <c:v>116.8043553730861</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>130.35693827293881</c:v>
+                  <c:v>118.95661267078901</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>134.87954596038841</c:v>
+                  <c:v>123.1764384973319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>145.19095006041178</c:v>
+                  <c:v>132.2750224506357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157.52654943062532</c:v>
+                  <c:v>142.79247412904152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>166.291706080388</c:v>
+                  <c:v>150.5843241853421</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>169.5578412410851</c:v>
+                  <c:v>154.5929108585741</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>174.16065837165041</c:v>
+                  <c:v>159.88896553154561</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>184.3459845272142</c:v>
+                  <c:v>169.6054924203965</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>195.6445780402909</c:v>
+                  <c:v>180.04844379293701</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>203.23518851038219</c:v>
+                  <c:v>186.61976675717719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>205.14357316346459</c:v>
+                  <c:v>187.47915284781558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>206.78159442180581</c:v>
+                  <c:v>189.27024300442159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>205.61358510209152</c:v>
+                  <c:v>187.96526113618862</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>204.9857334583495</c:v>
+                  <c:v>187.01214946526838</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>201.8999973742099</c:v>
+                  <c:v>184.96027363096152</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>203.41916910852419</c:v>
+                  <c:v>187.3418334508923</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>203.46195837520528</c:v>
+                  <c:v>188.00249446246531</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>196.55216573808229</c:v>
+                  <c:v>182.69364798043159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>186.0372318313465</c:v>
+                  <c:v>173.74934993599149</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180.0864675227958</c:v>
+                  <c:v>168.7275140845266</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>174.77712260897559</c:v>
+                  <c:v>164.54509235489169</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>172.15261776002379</c:v>
+                  <c:v>162.88266243024512</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>183.1843668434058</c:v>
+                  <c:v>174.36103455736438</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>195.9628246264526</c:v>
+                  <c:v>187.52166055733218</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>202.89074969324091</c:v>
+                  <c:v>194.82396859847981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>203.35094434250971</c:v>
+                  <c:v>196.3363422988005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>199.6436402374153</c:v>
+                  <c:v>194.37223470997142</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>199.46340964706241</c:v>
+                  <c:v>196.62139585801381</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>199.90489072099049</c:v>
+                  <c:v>199.9469926146385</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>197.4344787198595</c:v>
+                  <c:v>199.93036053153332</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>196.71710928997979</c:v>
+                  <c:v>200.53498091804468</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>187.5067824137912</c:v>
+                  <c:v>192.4209357279388</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>169.58879576832481</c:v>
+                  <c:v>175.33687366380971</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>161.54876500278999</c:v>
+                  <c:v>167.77772057524291</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>155.78821920307269</c:v>
+                  <c:v>163.12272719709031</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>155.03659879612948</c:v>
+                  <c:v>163.88416335366099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29862,7 +29862,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J43"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -29913,13 +29913,13 @@
         <v>820.92700000000002</v>
       </c>
       <c r="E2">
-        <v>1287.2772752782059</v>
+        <v>1287.2398110973161</v>
       </c>
       <c r="F2">
-        <v>186.5128732466913</v>
+        <v>186.51287460203451</v>
       </c>
       <c r="G2">
-        <v>261.69715602334742</v>
+        <v>241.76976491665351</v>
       </c>
       <c r="H2">
         <v>2124.6078553970287</v>
@@ -29945,13 +29945,13 @@
         <v>880.01499999999999</v>
       </c>
       <c r="E3">
-        <v>1493.5079552293132</v>
+        <v>1493.465922153727</v>
       </c>
       <c r="F3">
-        <v>249.4300056675977</v>
+        <v>249.43000613704538</v>
       </c>
       <c r="G3">
-        <v>260.33631069603098</v>
+        <v>240.94404128331922</v>
       </c>
       <c r="H3">
         <v>2388.20438863967</v>
@@ -29977,13 +29977,13 @@
         <v>951.24300000000005</v>
       </c>
       <c r="E4">
-        <v>2034.511609640206</v>
+        <v>2034.456893588781</v>
       </c>
       <c r="F4">
-        <v>319.84833264487122</v>
+        <v>319.84833443278177</v>
       </c>
       <c r="G4">
-        <v>267.25496286500686</v>
+        <v>247.24629260298371</v>
       </c>
       <c r="H4">
         <v>3162.3704448450521</v>
@@ -30009,13 +30009,13 @@
         <v>1025</v>
       </c>
       <c r="E5">
-        <v>2193.9491351668962</v>
+        <v>2193.8917593016149</v>
       </c>
       <c r="F5">
-        <v>373.67685113562038</v>
+        <v>373.676855402559</v>
       </c>
       <c r="G5">
-        <v>276.57332196570576</v>
+        <v>254.1527083828112</v>
       </c>
       <c r="H5">
         <v>3396.7558945155911</v>
@@ -30041,13 +30041,13 @@
         <v>1091</v>
       </c>
       <c r="E6">
-        <v>2299.1745217484468</v>
+        <v>2299.1141955319949</v>
       </c>
       <c r="F6">
-        <v>409.37203550857674</v>
+        <v>409.37204701597369</v>
       </c>
       <c r="G6">
-        <v>284.40449980142699</v>
+        <v>259.98303897876548</v>
       </c>
       <c r="H6">
         <v>3599.198567913008</v>
@@ -30073,13 +30073,13 @@
         <v>1149</v>
       </c>
       <c r="E7">
-        <v>2181.8976314603869</v>
+        <v>2181.8368845879527</v>
       </c>
       <c r="F7">
-        <v>447.77923711312496</v>
+        <v>447.77926002168778</v>
       </c>
       <c r="G7">
-        <v>289.13163736322241</v>
+        <v>266.28704707285641</v>
       </c>
       <c r="H7">
         <v>3513.1338405499823</v>
@@ -30105,13 +30105,13 @@
         <v>1201</v>
       </c>
       <c r="E8">
-        <v>1873.5743784715171</v>
+        <v>1873.5177514517109</v>
       </c>
       <c r="F8">
-        <v>465.32734777353539</v>
+        <v>465.32737579750852</v>
       </c>
       <c r="G8">
-        <v>297.58712413983039</v>
+        <v>274.1540152757596</v>
       </c>
       <c r="H8">
         <v>3085.2131636715594</v>
@@ -30137,13 +30137,13 @@
         <v>1253</v>
       </c>
       <c r="E9">
-        <v>1625.5590314028209</v>
+        <v>1625.4966690614319</v>
       </c>
       <c r="F9">
-        <v>459.51115296749481</v>
+        <v>459.5111832996418</v>
       </c>
       <c r="G9">
-        <v>308.43529285813571</v>
+        <v>284.18060795281752</v>
       </c>
       <c r="H9">
         <v>2920.3552835395958</v>
@@ -30169,13 +30169,13 @@
         <v>1321</v>
       </c>
       <c r="E10">
-        <v>1441.882969475563</v>
+        <v>1441.8133554747221</v>
       </c>
       <c r="F10">
-        <v>477.78391429659939</v>
+        <v>477.78394714849941</v>
       </c>
       <c r="G10">
-        <v>330.80168245122093</v>
+        <v>306.92073459472897</v>
       </c>
       <c r="H10">
         <v>2998.4266846401551</v>
@@ -30201,13 +30201,13 @@
         <v>1389</v>
       </c>
       <c r="E11">
-        <v>1133.2423932611239</v>
+        <v>1133.1756215383939</v>
       </c>
       <c r="F11">
-        <v>516.69927321300315</v>
+        <v>516.69930866376296</v>
       </c>
       <c r="G11">
-        <v>350.5435920935891</v>
+        <v>324.80805992875491</v>
       </c>
       <c r="H11">
         <v>2609.271144531147</v>
@@ -30233,13 +30233,13 @@
         <v>1459</v>
       </c>
       <c r="E12">
-        <v>1026.8423185689649</v>
+        <v>1026.7789366960881</v>
       </c>
       <c r="F12">
-        <v>521.14549900880502</v>
+        <v>521.14553411164502</v>
       </c>
       <c r="G12">
-        <v>370.54115464829079</v>
+        <v>342.45247070391417</v>
       </c>
       <c r="H12">
         <v>2324.1862259907289</v>
@@ -30265,13 +30265,13 @@
         <v>1532</v>
       </c>
       <c r="E13">
-        <v>1002.893398811499</v>
+        <v>1002.831544989106</v>
       </c>
       <c r="F13">
-        <v>572.78602503034858</v>
+        <v>572.78606192814595</v>
       </c>
       <c r="G13">
-        <v>388.51388595580119</v>
+        <v>362.88106436669125</v>
       </c>
       <c r="H13">
         <v>2230.359438002311</v>
@@ -30297,13 +30297,13 @@
         <v>1600</v>
       </c>
       <c r="E14">
-        <v>1126.926318756618</v>
+        <v>1126.863694298097</v>
       </c>
       <c r="F14">
-        <v>613.52125343016178</v>
+        <v>613.52128848274424</v>
       </c>
       <c r="G14">
-        <v>409.53018431592596</v>
+        <v>381.51385794289843</v>
       </c>
       <c r="H14">
         <v>2633.267982546744</v>
@@ -30329,13 +30329,13 @@
         <v>1660</v>
       </c>
       <c r="E15">
-        <v>1226.656585308494</v>
+        <v>1226.5957083751521</v>
       </c>
       <c r="F15">
-        <v>633.25658395689186</v>
+        <v>633.25661503327478</v>
       </c>
       <c r="G15">
-        <v>424.92871918103305</v>
+        <v>396.416964361635</v>
       </c>
       <c r="H15">
         <v>3044.185515854118</v>
@@ -30361,13 +30361,13 @@
         <v>1713</v>
       </c>
       <c r="E16">
-        <v>1207.315842264305</v>
+        <v>1207.2594761460291</v>
       </c>
       <c r="F16">
-        <v>620.1986379201453</v>
+        <v>620.19866234697611</v>
       </c>
       <c r="G16">
-        <v>437.2821619658244</v>
+        <v>411.46998865191244</v>
       </c>
       <c r="H16">
         <v>2885.6402525871908</v>
@@ -30393,13 +30393,13 @@
         <v>1755</v>
       </c>
       <c r="E17">
-        <v>1125.8080164781181</v>
+        <v>1125.758129378429</v>
       </c>
       <c r="F17">
-        <v>604.06866272154616</v>
+        <v>604.0686808113619</v>
       </c>
       <c r="G17">
-        <v>447.31491040141742</v>
+        <v>421.66649669201496</v>
       </c>
       <c r="H17">
         <v>2614.5633534304679</v>
@@ -30425,13 +30425,13 @@
         <v>1773</v>
       </c>
       <c r="E18">
-        <v>1039.715345826603</v>
+        <v>1039.6719841688109</v>
       </c>
       <c r="F18">
-        <v>570.09926424100593</v>
+        <v>570.09927959486777</v>
       </c>
       <c r="G18">
-        <v>444.13970904986434</v>
+        <v>419.44054064204789</v>
       </c>
       <c r="H18">
         <v>2324.639689664742</v>
@@ -30457,13 +30457,13 @@
         <v>1782</v>
       </c>
       <c r="E19">
-        <v>858.48538003192857</v>
+        <v>858.44921455432507</v>
       </c>
       <c r="F19">
-        <v>547.3409485190416</v>
+        <v>547.34096570309885</v>
       </c>
       <c r="G19">
-        <v>438.69155484948919</v>
+        <v>416.73952421881552</v>
       </c>
       <c r="H19">
         <v>1862.2778680494191</v>
@@ -30489,13 +30489,13 @@
         <v>1776</v>
       </c>
       <c r="E20">
-        <v>833.31405869497723</v>
+        <v>833.28315462214857</v>
       </c>
       <c r="F20">
-        <v>525.81689845515439</v>
+        <v>525.81691931672844</v>
       </c>
       <c r="G20">
-        <v>426.05032726961969</v>
+        <v>405.11178366430119</v>
       </c>
       <c r="H20">
         <v>1983.1424364357761</v>
@@ -30521,13 +30521,13 @@
         <v>1770</v>
       </c>
       <c r="E21">
-        <v>711.68671074917302</v>
+        <v>711.66137363753649</v>
       </c>
       <c r="F21">
-        <v>480.25350735219041</v>
+        <v>480.25353231411674</v>
       </c>
       <c r="G21">
-        <v>417.28373056605568</v>
+        <v>397.28523906124235</v>
       </c>
       <c r="H21">
         <v>1609.4784068112481</v>
@@ -30553,13 +30553,13 @@
         <v>1769</v>
       </c>
       <c r="E22">
-        <v>684.1584742486649</v>
+        <v>684.13707177102754</v>
       </c>
       <c r="F22">
-        <v>439.89881327219121</v>
+        <v>439.8988354775571</v>
       </c>
       <c r="G22">
-        <v>406.52690819045159</v>
+        <v>388.72812831454007</v>
       </c>
       <c r="H22">
         <v>1494.290871003551</v>
@@ -30585,13 +30585,13 @@
         <v>1793</v>
       </c>
       <c r="E23">
-        <v>628.5692305461406</v>
+        <v>628.55056974060756</v>
       </c>
       <c r="F23">
-        <v>401.53423662879521</v>
+        <v>401.53425746648901</v>
       </c>
       <c r="G23">
-        <v>407.27859073062211</v>
+        <v>391.86432974107481</v>
       </c>
       <c r="H23">
         <v>1306.8354536780191</v>
@@ -30617,13 +30617,13 @@
         <v>1835</v>
       </c>
       <c r="E24">
-        <v>457.24620050789099</v>
+        <v>457.23150973495291</v>
       </c>
       <c r="F24">
-        <v>374.07276880251766</v>
+        <v>374.07278684616779</v>
       </c>
       <c r="G24">
-        <v>410.05138964509524</v>
+        <v>396.14523940249001</v>
       </c>
       <c r="H24">
         <v>967.29995674052577</v>
@@ -30649,13 +30649,13 @@
         <v>1906</v>
       </c>
       <c r="E25">
-        <v>472.0153468017474</v>
+        <v>471.99982536725616</v>
       </c>
       <c r="F25">
-        <v>351.54121949766318</v>
+        <v>351.54123302150708</v>
       </c>
       <c r="G25">
-        <v>432.93418576407259</v>
+        <v>422.34259815208395</v>
       </c>
       <c r="H25">
         <v>1043.856126917696</v>
@@ -30681,13 +30681,13 @@
         <v>1957</v>
       </c>
       <c r="E26">
-        <v>536.34608441857233</v>
+        <v>536.32935361108071</v>
       </c>
       <c r="F26">
-        <v>352.69940306724004</v>
+        <v>352.69941246276943</v>
       </c>
       <c r="G26">
-        <v>434.92055766867128</v>
+        <v>426.48288570675089</v>
       </c>
       <c r="H26">
         <v>1241.1412621698391</v>
@@ -30713,13 +30713,13 @@
         <v>2004</v>
       </c>
       <c r="E27">
-        <v>599.28287504453556</v>
+        <v>599.26406863113482</v>
       </c>
       <c r="F27">
-        <v>364.15956671626373</v>
+        <v>364.15957434448052</v>
       </c>
       <c r="G27">
-        <v>444.86071847831681</v>
+        <v>439.74875410642704</v>
       </c>
       <c r="H27">
         <v>1366.7083937558969</v>
@@ -30745,13 +30745,13 @@
         <v>2035</v>
       </c>
       <c r="E28">
-        <v>602.09296130758901</v>
+        <v>602.07435467119342</v>
       </c>
       <c r="F28">
-        <v>361.19766650339591</v>
+        <v>361.19767378431459</v>
       </c>
       <c r="G28">
-        <v>449.43627533697054</v>
+        <v>446.84417589533672</v>
       </c>
       <c r="H28">
         <v>1308.829140313007</v>
@@ -30777,13 +30777,13 @@
         <v>2048</v>
       </c>
       <c r="E29">
-        <v>485.79212261799751</v>
+        <v>485.77590419094116</v>
       </c>
       <c r="F29">
-        <v>335.63000277652429</v>
+        <v>335.63000725229983</v>
       </c>
       <c r="G29">
-        <v>447.50972093414356</v>
+        <v>448.50567259703831</v>
       </c>
       <c r="H29">
         <v>991.60291899097342</v>
@@ -30809,13 +30809,13 @@
         <v>2069</v>
       </c>
       <c r="E30">
-        <v>404.03260285571281</v>
+        <v>404.01741482019082</v>
       </c>
       <c r="F30">
-        <v>307.69567709807916</v>
+        <v>307.69568315859527</v>
       </c>
       <c r="G30">
-        <v>460.5521050007286</v>
+        <v>464.6466948221194</v>
       </c>
       <c r="H30">
         <v>831.31853868180235</v>
@@ -30841,13 +30841,13 @@
         <v>2076</v>
       </c>
       <c r="E31">
-        <v>403.54674065349195</v>
+        <v>403.52918153675529</v>
       </c>
       <c r="F31">
-        <v>312.61862865694013</v>
+        <v>312.61864388241202</v>
       </c>
       <c r="G31">
-        <v>470.90743494968712</v>
+        <v>479.6232193874971</v>
       </c>
       <c r="H31">
         <v>935.04711363993658</v>
@@ -30873,13 +30873,13 @@
         <v>2054</v>
       </c>
       <c r="E32">
-        <v>443.00738840552754</v>
+        <v>442.98748278890338</v>
       </c>
       <c r="F32">
-        <v>346.87751701191479</v>
+        <v>346.87753685438486</v>
       </c>
       <c r="G32">
-        <v>462.7895790684401</v>
+        <v>473.50294003037391</v>
       </c>
       <c r="H32">
         <v>1076.394051618835</v>
@@ -30905,13 +30905,13 @@
         <v>2020</v>
       </c>
       <c r="E33">
-        <v>637.51223870851868</v>
+        <v>637.48576402225115</v>
       </c>
       <c r="F33">
-        <v>396.06513065713563</v>
+        <v>396.06514249073109</v>
       </c>
       <c r="G33">
-        <v>458.83441699742491</v>
+        <v>472.19390532154534</v>
       </c>
       <c r="H33">
         <v>1465.072604353561</v>
@@ -30937,13 +30937,13 @@
         <v>1962</v>
       </c>
       <c r="E34">
-        <v>894.42544636112052</v>
+        <v>894.38866555280651</v>
       </c>
       <c r="F34">
-        <v>435.87415764331121</v>
+        <v>435.87415951050178</v>
       </c>
       <c r="G34">
-        <v>441.67796051044587</v>
+        <v>455.98482084410387</v>
       </c>
       <c r="H34">
         <v>1932.3920454385939</v>
@@ -30969,13 +30969,13 @@
         <v>1895</v>
       </c>
       <c r="E35">
-        <v>895.58860934247969</v>
+        <v>895.54718921361564</v>
       </c>
       <c r="F35">
-        <v>463.73956464490135</v>
+        <v>463.73955313595405</v>
       </c>
       <c r="G35">
-        <v>424.61369859879636</v>
+        <v>440.00050413054191</v>
       </c>
       <c r="H35">
         <v>1801.5742546891099</v>
@@ -31001,13 +31001,13 @@
         <v>1826</v>
       </c>
       <c r="E36">
-        <v>875.57652561118823</v>
+        <v>875.53281698804915</v>
       </c>
       <c r="F36">
-        <v>446.21694368015329</v>
+        <v>446.21692728667938</v>
       </c>
       <c r="G36">
-        <v>411.34011921182571</v>
+        <v>427.74041546102529</v>
       </c>
       <c r="H36">
         <v>1684.1688807572241</v>
@@ -31033,13 +31033,13 @@
         <v>1756</v>
       </c>
       <c r="E37">
-        <v>894.52847269757012</v>
+        <v>894.47867487857638</v>
       </c>
       <c r="F37">
-        <v>417.15679893006086</v>
+        <v>417.15678879810713</v>
       </c>
       <c r="G37">
-        <v>395.3741289050227</v>
+        <v>414.04195825282795</v>
       </c>
       <c r="H37">
         <v>1680.1065257290809</v>
@@ -31065,13 +31065,13 @@
         <v>1701</v>
       </c>
       <c r="E38">
-        <v>1170.9493989373159</v>
+        <v>1170.9118624570901</v>
       </c>
       <c r="F38">
-        <v>398.23104340553704</v>
+        <v>398.23105414431615</v>
       </c>
       <c r="G38">
-        <v>399.5506238854839</v>
+        <v>420.90958255687127</v>
       </c>
       <c r="H38">
         <v>2184.0317097638363</v>
@@ -31097,13 +31097,13 @@
         <v>1647</v>
       </c>
       <c r="E39">
-        <v>1727.4745650246839</v>
+        <v>1727.467358527558</v>
       </c>
       <c r="F39">
-        <v>377.57327890043751</v>
+        <v>377.57330454268913</v>
       </c>
       <c r="G39">
-        <v>402.95361687364357</v>
+        <v>428.46623157866139</v>
       </c>
       <c r="H39">
         <v>3211.9315978431619</v>
@@ -31129,13 +31129,13 @@
         <v>1571</v>
       </c>
       <c r="E40">
-        <v>1404.6095133935321</v>
+        <v>1404.5960696939969</v>
       </c>
       <c r="F40">
-        <v>318.59136583994717</v>
+        <v>318.59139427958951</v>
       </c>
       <c r="G40">
-        <v>382.8842043845932</v>
+        <v>410.32328265322928</v>
       </c>
       <c r="H40">
         <v>2611.1723711937611</v>
@@ -31161,13 +31161,13 @@
         <v>1520</v>
       </c>
       <c r="E41">
-        <v>1291.0695646892559</v>
+        <v>1291.057036330021</v>
       </c>
       <c r="F41">
-        <v>245.14261577222902</v>
+        <v>245.14263623747041</v>
       </c>
       <c r="G41">
-        <v>406.90701981339231</v>
+        <v>439.52181566485149</v>
       </c>
       <c r="H41">
         <v>2325.3178701559309</v>
@@ -31193,13 +31193,13 @@
         <v>1463</v>
       </c>
       <c r="E42">
-        <v>946.4635135120858</v>
+        <v>946.43925093828796</v>
       </c>
       <c r="F42">
-        <v>177.45151207110592</v>
+        <v>177.45152296484341</v>
       </c>
       <c r="G42">
-        <v>419.60898356939759</v>
+        <v>453.40101523021383</v>
       </c>
       <c r="H42">
         <v>1789.659988133759</v>
@@ -31225,13 +31225,13 @@
         <v>1421</v>
       </c>
       <c r="E43">
-        <v>784.83362583721282</v>
+        <v>784.79918057219834</v>
       </c>
       <c r="F43">
-        <v>134.2927818144457</v>
+        <v>134.29278832749571</v>
       </c>
       <c r="G43">
-        <v>419.96680741261349</v>
+        <v>453.66285178767691</v>
       </c>
       <c r="H43">
         <v>1632.470116817947</v>
@@ -31254,7 +31254,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -31308,13 +31308,13 @@
         <v>355</v>
       </c>
       <c r="E2">
-        <v>128.95173092425631</v>
+        <v>128.95495029788111</v>
       </c>
       <c r="F2">
-        <v>54.865653392388367</v>
+        <v>54.865646236032454</v>
       </c>
       <c r="G2">
-        <v>118.2624443966442</v>
+        <v>104.1421817246827</v>
       </c>
       <c r="H2">
         <v>216.32565254096949</v>
@@ -31340,13 +31340,13 @@
         <v>366</v>
       </c>
       <c r="E3">
-        <v>107.68142661678141</v>
+        <v>107.6848200192172</v>
       </c>
       <c r="F3">
-        <v>56.748256652423713</v>
+        <v>56.748247821239048</v>
       </c>
       <c r="G3">
-        <v>126.1140373266399</v>
+        <v>111.24235569625891</v>
       </c>
       <c r="H3">
         <v>173.3459004413219</v>
@@ -31372,13 +31372,13 @@
         <v>388</v>
       </c>
       <c r="E4">
-        <v>105.82034212907311</v>
+        <v>105.8237957977114</v>
       </c>
       <c r="F4">
-        <v>53.076596224895788</v>
+        <v>53.076586873867143</v>
       </c>
       <c r="G4">
-        <v>130.483296332729</v>
+        <v>116.3839599705508</v>
       </c>
       <c r="H4">
         <v>164.81478853890701</v>
@@ -31404,13 +31404,13 @@
         <v>418</v>
       </c>
       <c r="E5">
-        <v>134.48116449911009</v>
+        <v>134.48519674228379</v>
       </c>
       <c r="F5">
-        <v>83.196472053269048</v>
+        <v>83.196455483489842</v>
       </c>
       <c r="G5">
-        <v>131.1632373664701</v>
+        <v>118.12283202174419</v>
       </c>
       <c r="H5">
         <v>201.97099917798261</v>
@@ -31436,13 +31436,13 @@
         <v>450</v>
       </c>
       <c r="E6">
-        <v>133.22389243351319</v>
+        <v>133.22760612096329</v>
       </c>
       <c r="F6">
-        <v>106.8755937850752</v>
+        <v>106.8755712507495</v>
       </c>
       <c r="G6">
-        <v>129.5346061443438</v>
+        <v>117.37127748922271</v>
       </c>
       <c r="H6">
         <v>195.60655140483573</v>
@@ -31468,13 +31468,13 @@
         <v>485</v>
       </c>
       <c r="E7">
-        <v>210.34471114293621</v>
+        <v>210.3497968316303</v>
       </c>
       <c r="F7">
-        <v>110.05738030833881</v>
+        <v>110.0573572131746</v>
       </c>
       <c r="G7">
-        <v>128.38895706828021</v>
+        <v>116.8043553730861</v>
       </c>
       <c r="H7">
         <v>309.15919247340457</v>
@@ -31500,13 +31500,13 @@
         <v>528</v>
       </c>
       <c r="E8">
-        <v>275.6051834742957</v>
+        <v>275.6115631429073</v>
       </c>
       <c r="F8">
-        <v>118.56398017255421</v>
+        <v>118.5639545335836</v>
       </c>
       <c r="G8">
-        <v>130.35693827293881</v>
+        <v>118.95661267078901</v>
       </c>
       <c r="H8">
         <v>409.33440846002924</v>
@@ -31532,13 +31532,13 @@
         <v>576</v>
       </c>
       <c r="E9">
-        <v>284.82836906324599</v>
+        <v>284.83570456758139</v>
       </c>
       <c r="F9">
-        <v>142.64826742674961</v>
+        <v>142.64823490796891</v>
       </c>
       <c r="G9">
-        <v>134.87954596038841</v>
+        <v>123.1764384973319</v>
       </c>
       <c r="H9">
         <v>435.25734382856496</v>
@@ -31564,13 +31564,13 @@
         <v>630</v>
       </c>
       <c r="E10">
-        <v>223.17825176136432</v>
+        <v>223.1859744135991</v>
       </c>
       <c r="F10">
-        <v>141.1876481583964</v>
+        <v>141.18761379675152</v>
       </c>
       <c r="G10">
-        <v>145.19095006041178</v>
+        <v>132.2750224506357</v>
       </c>
       <c r="H10">
         <v>371.0196486505767</v>
@@ -31596,13 +31596,13 @@
         <v>681</v>
       </c>
       <c r="E11">
-        <v>151.5496954732055</v>
+        <v>151.55748496447168</v>
       </c>
       <c r="F11">
-        <v>141.06292243951668</v>
+        <v>141.06288733520111</v>
       </c>
       <c r="G11">
-        <v>157.52654943062532</v>
+        <v>142.79247412904152</v>
       </c>
       <c r="H11">
         <v>296.75282797277566</v>
@@ -31628,13 +31628,13 @@
         <v>722</v>
       </c>
       <c r="E12">
-        <v>130.48887653869571</v>
+        <v>130.4964170377188</v>
       </c>
       <c r="F12">
-        <v>144.9850994188746</v>
+        <v>144.9850640712192</v>
       </c>
       <c r="G12">
-        <v>166.291706080388</v>
+        <v>150.5843241853421</v>
       </c>
       <c r="H12">
         <v>255.5419160817076</v>
@@ -31660,13 +31660,13 @@
         <v>749</v>
       </c>
       <c r="E13">
-        <v>140.2532811156984</v>
+        <v>140.26149266822361</v>
       </c>
       <c r="F13">
-        <v>187.22053137645239</v>
+        <v>187.22049159716829</v>
       </c>
       <c r="G13">
-        <v>169.5578412410851</v>
+        <v>154.5929108585741</v>
       </c>
       <c r="H13">
         <v>268.77072017857824</v>
@@ -31692,13 +31692,13 @@
         <v>773</v>
       </c>
       <c r="E14">
-        <v>163.9551465380637</v>
+        <v>163.96376694109222</v>
       </c>
       <c r="F14">
-        <v>215.0061736341718</v>
+        <v>215.00613132512171</v>
       </c>
       <c r="G14">
-        <v>174.16065837165041</v>
+        <v>159.88896553154561</v>
       </c>
       <c r="H14">
         <v>303.80011154780669</v>
@@ -31724,13 +31724,13 @@
         <v>805</v>
       </c>
       <c r="E15">
-        <v>172.98317415149592</v>
+        <v>172.9924699959148</v>
       </c>
       <c r="F15">
-        <v>216.98855968270621</v>
+        <v>216.98851905995321</v>
       </c>
       <c r="G15">
-        <v>184.3459845272142</v>
+        <v>169.6054924203965</v>
       </c>
       <c r="H15">
         <v>307.01859505158626</v>
@@ -31756,13 +31756,13 @@
         <v>843</v>
       </c>
       <c r="E16">
-        <v>170.18307496137351</v>
+        <v>170.19276717403531</v>
       </c>
       <c r="F16">
-        <v>212.8654163744859</v>
+        <v>212.86537942145569</v>
       </c>
       <c r="G16">
-        <v>195.6445780402909</v>
+        <v>180.04844379293701</v>
       </c>
       <c r="H16">
         <v>296.37545481666149</v>
@@ -31788,13 +31788,13 @@
         <v>884</v>
       </c>
       <c r="E17">
-        <v>161.7223760450355</v>
+        <v>161.73142215036762</v>
       </c>
       <c r="F17">
-        <v>204.7731577801728</v>
+        <v>204.77312426064719</v>
       </c>
       <c r="G17">
-        <v>203.23518851038219</v>
+        <v>186.61976675717719</v>
       </c>
       <c r="H17">
         <v>286.94237028285642</v>
@@ -31820,13 +31820,13 @@
         <v>920</v>
       </c>
       <c r="E18">
-        <v>185.82353439471009</v>
+        <v>185.83262649469282</v>
       </c>
       <c r="F18">
-        <v>195.89241371547399</v>
+        <v>195.8923824470823</v>
       </c>
       <c r="G18">
-        <v>205.14357316346459</v>
+        <v>187.47915284781558</v>
       </c>
       <c r="H18">
         <v>340.65488571552618</v>
@@ -31852,13 +31852,13 @@
         <v>954</v>
       </c>
       <c r="E19">
-        <v>225.75798247719621</v>
+        <v>225.76765382766661</v>
       </c>
       <c r="F19">
-        <v>203.47251827983652</v>
+        <v>203.47248613720669</v>
       </c>
       <c r="G19">
-        <v>206.78159442180581</v>
+        <v>189.27024300442159</v>
       </c>
       <c r="H19">
         <v>414.5924425787631</v>
@@ -31884,13 +31884,13 @@
         <v>978</v>
       </c>
       <c r="E20">
-        <v>184.9496797402648</v>
+        <v>184.95732780413979</v>
       </c>
       <c r="F20">
-        <v>197.99912709708488</v>
+        <v>197.99909500853701</v>
       </c>
       <c r="G20">
-        <v>205.61358510209152</v>
+        <v>187.96526113618862</v>
       </c>
       <c r="H20">
         <v>332.38002094345273</v>
@@ -31916,13 +31916,13 @@
         <v>991</v>
       </c>
       <c r="E21">
-        <v>174.91573006399619</v>
+        <v>174.9223279810854</v>
       </c>
       <c r="F21">
-        <v>172.84343113130811</v>
+        <v>172.84340078172991</v>
       </c>
       <c r="G21">
-        <v>204.9857334583495</v>
+        <v>187.01214946526838</v>
       </c>
       <c r="H21">
         <v>299.1716176444246</v>
@@ -31948,13 +31948,13 @@
         <v>1008</v>
       </c>
       <c r="E22">
-        <v>159.4977048349671</v>
+        <v>159.5033715895172</v>
       </c>
       <c r="F22">
-        <v>154.9560435534851</v>
+        <v>154.95601251958311</v>
       </c>
       <c r="G22">
-        <v>201.8999973742099</v>
+        <v>184.96027363096152</v>
       </c>
       <c r="H22">
         <v>254.9486345745558</v>
@@ -31980,13 +31980,13 @@
         <v>1017</v>
       </c>
       <c r="E23">
-        <v>122.9738341715003</v>
+        <v>122.97837199818591</v>
       </c>
       <c r="F23">
-        <v>139.71051776255092</v>
+        <v>139.71048622398558</v>
       </c>
       <c r="G23">
-        <v>203.41916910852419</v>
+        <v>187.3418334508923</v>
       </c>
       <c r="H23">
         <v>199.41305463467151</v>
@@ -32012,13 +32012,13 @@
         <v>1020</v>
       </c>
       <c r="E24">
-        <v>110.86674318349931</v>
+        <v>110.87075712454579</v>
       </c>
       <c r="F24">
-        <v>129.55486826015871</v>
+        <v>129.55483548947171</v>
       </c>
       <c r="G24">
-        <v>203.46195837520528</v>
+        <v>188.00249446246531</v>
       </c>
       <c r="H24">
         <v>196.58586532311548</v>
@@ -32044,13 +32044,13 @@
         <v>1012</v>
       </c>
       <c r="E25">
-        <v>100.5744498107977</v>
+        <v>100.5780226700998</v>
       </c>
       <c r="F25">
-        <v>113.2002034246527</v>
+        <v>113.20017206005511</v>
       </c>
       <c r="G25">
-        <v>196.55216573808229</v>
+        <v>182.69364798043159</v>
       </c>
       <c r="H25">
         <v>179.3544499444908</v>
@@ -32076,13 +32076,13 @@
         <v>966</v>
       </c>
       <c r="E26">
-        <v>87.998568033684506</v>
+        <v>88.00185461492832</v>
       </c>
       <c r="F26">
-        <v>104.85699401212081</v>
+        <v>104.8569642935893</v>
       </c>
       <c r="G26">
-        <v>186.0372318313465</v>
+        <v>173.74934993599149</v>
       </c>
       <c r="H26">
         <v>153.06572191299469</v>
@@ -32108,13 +32108,13 @@
         <v>991</v>
       </c>
       <c r="E27">
-        <v>64.708600543733297</v>
+        <v>64.711450003623057</v>
       </c>
       <c r="F27">
-        <v>115.2631184491875</v>
+        <v>115.2630849913803</v>
       </c>
       <c r="G27">
-        <v>180.0864675227958</v>
+        <v>168.7275140845266</v>
       </c>
       <c r="H27">
         <v>112.4511373295778</v>
@@ -32140,13 +32140,13 @@
         <v>997</v>
       </c>
       <c r="E28">
-        <v>60.28563200855281</v>
+        <v>60.288352888710307</v>
       </c>
       <c r="F28">
-        <v>124.72551403652039</v>
+        <v>124.7254778627687</v>
       </c>
       <c r="G28">
-        <v>174.77712260897559</v>
+        <v>164.54509235489169</v>
       </c>
       <c r="H28">
         <v>104.6803211328295</v>
@@ -32172,13 +32172,13 @@
         <v>1016</v>
       </c>
       <c r="E29">
-        <v>81.515209785456975</v>
+        <v>81.517890457662347</v>
       </c>
       <c r="F29">
-        <v>122.59085122389909</v>
+        <v>122.5908160815336</v>
       </c>
       <c r="G29">
-        <v>172.15261776002379</v>
+        <v>162.88266243024512</v>
       </c>
       <c r="H29">
         <v>145.87349122479361</v>
@@ -32204,13 +32204,13 @@
         <v>1065</v>
       </c>
       <c r="E30">
-        <v>97.007975801839834</v>
+        <v>97.011226528355792</v>
       </c>
       <c r="F30">
-        <v>107.9606150611621</v>
+        <v>107.9605852615279</v>
       </c>
       <c r="G30">
-        <v>183.1843668434058</v>
+        <v>174.36103455736438</v>
       </c>
       <c r="H30">
         <v>171.35141366615949</v>
@@ -32236,13 +32236,13 @@
         <v>1118</v>
       </c>
       <c r="E31">
-        <v>97.586838646747964</v>
+        <v>97.590515138297548</v>
       </c>
       <c r="F31">
-        <v>96.949955245179041</v>
+        <v>96.949932775625243</v>
       </c>
       <c r="G31">
-        <v>195.9628246264526</v>
+        <v>187.52166055733218</v>
       </c>
       <c r="H31">
         <v>169.66827093373411</v>
@@ -32268,13 +32268,13 @@
         <v>1155</v>
       </c>
       <c r="E32">
-        <v>74.522003188195441</v>
+        <v>74.525578610250193</v>
       </c>
       <c r="F32">
-        <v>87.858584561673453</v>
+        <v>87.858567099378433</v>
       </c>
       <c r="G32">
-        <v>202.89074969324091</v>
+        <v>194.82396859847981</v>
       </c>
       <c r="H32">
         <v>132.25755668165652</v>
@@ -32300,13 +32300,13 @@
         <v>1173</v>
       </c>
       <c r="E33">
-        <v>68.655114807821562</v>
+        <v>68.658929056743489</v>
       </c>
       <c r="F33">
-        <v>98.092973537392851</v>
+        <v>98.092956217397614</v>
       </c>
       <c r="G33">
-        <v>203.35094434250971</v>
+        <v>196.3363422988005</v>
       </c>
       <c r="H33">
         <v>120.1621048570874</v>
@@ -32332,13 +32332,13 @@
         <v>1170</v>
       </c>
       <c r="E34">
-        <v>74.228594005119064</v>
+        <v>74.232541809489319</v>
       </c>
       <c r="F34">
-        <v>118.6464659928871</v>
+        <v>118.6464486582381</v>
       </c>
       <c r="G34">
-        <v>199.6436402374153</v>
+        <v>194.37223470997142</v>
       </c>
       <c r="H34">
         <v>130.96692440445381</v>
@@ -32364,13 +32364,13 @@
         <v>1164</v>
       </c>
       <c r="E35">
-        <v>131.55437581177341</v>
+        <v>131.55932877192851</v>
       </c>
       <c r="F35">
-        <v>147.03877721975229</v>
+        <v>147.0387568850459</v>
       </c>
       <c r="G35">
-        <v>199.46340964706241</v>
+        <v>196.62139585801381</v>
       </c>
       <c r="H35">
         <v>227.26660565640509</v>
@@ -32396,13 +32396,13 @@
         <v>1156</v>
       </c>
       <c r="E36">
-        <v>170.4289220435688</v>
+        <v>170.43452678460778</v>
       </c>
       <c r="F36">
-        <v>147.229127509459</v>
+        <v>147.22910784992752</v>
       </c>
       <c r="G36">
-        <v>199.90489072099049</v>
+        <v>199.9469926146385</v>
       </c>
       <c r="H36">
         <v>283.23080314272477</v>
@@ -32428,13 +32428,13 @@
         <v>1136</v>
       </c>
       <c r="E37">
-        <v>187.90968383206632</v>
+        <v>187.91573322294468</v>
       </c>
       <c r="F37">
-        <v>135.98559331171651</v>
+        <v>135.98557376365821</v>
       </c>
       <c r="G37">
-        <v>197.4344787198595</v>
+        <v>199.93036053153332</v>
       </c>
       <c r="H37">
         <v>304.58696399096749</v>
@@ -32460,13 +32460,13 @@
         <v>1112</v>
       </c>
       <c r="E38">
-        <v>199.11488575220469</v>
+        <v>199.12201736567928</v>
       </c>
       <c r="F38">
-        <v>123.5473277951902</v>
+        <v>123.5473099948575</v>
       </c>
       <c r="G38">
-        <v>196.71710928997979</v>
+        <v>200.53498091804468</v>
       </c>
       <c r="H38">
         <v>314.71811225010759</v>
@@ -32492,13 +32492,13 @@
         <v>1074</v>
       </c>
       <c r="E39">
-        <v>158.89946696138469</v>
+        <v>158.90531138805147</v>
       </c>
       <c r="F39">
-        <v>119.80834921065879</v>
+        <v>119.808328963151</v>
       </c>
       <c r="G39">
-        <v>187.5067824137912</v>
+        <v>192.4209357279388</v>
       </c>
       <c r="H39">
         <v>242.97318883030042</v>
@@ -32524,13 +32524,13 @@
         <v>1014</v>
       </c>
       <c r="E40">
-        <v>131.73540571266241</v>
+        <v>131.74114679822083</v>
       </c>
       <c r="F40">
-        <v>110.84421577180521</v>
+        <v>110.84419305470381</v>
       </c>
       <c r="G40">
-        <v>169.58879576832481</v>
+        <v>175.33687366380971</v>
       </c>
       <c r="H40">
         <v>215.18751726648318</v>
@@ -32556,13 +32556,13 @@
         <v>966</v>
       </c>
       <c r="E41">
-        <v>148.5019541505001</v>
+        <v>148.50595984966318</v>
       </c>
       <c r="F41">
-        <v>96.071700842928976</v>
+        <v>96.071677111153434</v>
       </c>
       <c r="G41">
-        <v>161.54876500278999</v>
+        <v>167.77772057524291</v>
       </c>
       <c r="H41">
         <v>257.43595019740411</v>
@@ -32588,13 +32588,13 @@
         <v>923</v>
       </c>
       <c r="E42">
-        <v>175.53069965656849</v>
+        <v>175.53462913548128</v>
       </c>
       <c r="F42">
-        <v>71.997080919577542</v>
+        <v>71.997060197462716</v>
       </c>
       <c r="G42">
-        <v>155.78821920307269</v>
+        <v>163.12272719709031</v>
       </c>
       <c r="H42">
         <v>316.88125987619384</v>
@@ -32620,13 +32620,13 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>143.39245003916639</v>
+        <v>143.39628208631731</v>
       </c>
       <c r="F43">
-        <v>47.939760988483023</v>
+        <v>47.939746789926332</v>
       </c>
       <c r="G43">
-        <v>155.03659879612948</v>
+        <v>163.88416335366099</v>
       </c>
       <c r="H43">
         <v>269.96286172532081</v>
@@ -32649,7 +32649,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -32703,13 +32703,13 @@
         <v>0.76300000000000001</v>
       </c>
       <c r="E2">
-        <v>8.2646344175892832</v>
+        <v>8.264769415010413</v>
       </c>
       <c r="F2">
-        <v>0.45570008535297768</v>
+        <v>0.45570002720398217</v>
       </c>
       <c r="G2">
-        <v>0.15997640462875681</v>
+        <v>0.15041822937917881</v>
       </c>
       <c r="H2" s="1">
         <v>13.15840745369352</v>
@@ -32735,13 +32735,13 @@
         <v>0.877</v>
       </c>
       <c r="E3">
-        <v>8.6072454551151107</v>
+        <v>8.6073418311676573</v>
       </c>
       <c r="F3">
-        <v>0.42884560313019199</v>
+        <v>0.42884554888913545</v>
       </c>
       <c r="G3">
-        <v>0.17489927266173969</v>
+        <v>0.16593392986274511</v>
       </c>
       <c r="H3" s="1">
         <v>13.324624262257039</v>
@@ -32767,13 +32767,13 @@
         <v>0.96699999999999997</v>
       </c>
       <c r="E4">
-        <v>15.48621060831168</v>
+        <v>15.486438316205749</v>
       </c>
       <c r="F4">
-        <v>0.2577322118130449</v>
+        <v>0.25773217702124718</v>
       </c>
       <c r="G4">
-        <v>0.29106512553102792</v>
+        <v>0.26466379190029865</v>
       </c>
       <c r="H4" s="1">
         <v>23.845137880955082</v>
@@ -32799,13 +32799,13 @@
         <v>0.877</v>
       </c>
       <c r="E5">
-        <v>8.3013189792368518</v>
+        <v>8.3014201678184563</v>
       </c>
       <c r="F5">
-        <v>0.31053498613923963</v>
+        <v>0.31053494478801902</v>
       </c>
       <c r="G5">
-        <v>0.23222760184603691</v>
+        <v>0.18485465489327632</v>
       </c>
       <c r="H5" s="1">
         <v>13.82456807248716</v>
@@ -32831,13 +32831,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E6">
-        <v>4.7519364392310282</v>
+        <v>4.7520026064646599</v>
       </c>
       <c r="F6">
-        <v>0.6164496736386228</v>
+        <v>0.61644958345049727</v>
       </c>
       <c r="G6">
-        <v>0.17395507983235059</v>
+        <v>0.15753568376020471</v>
       </c>
       <c r="H6" s="1">
         <v>8.9657839245574937</v>
@@ -32863,13 +32863,13 @@
         <v>0.68</v>
       </c>
       <c r="E7">
-        <v>4.5631798884436634</v>
+        <v>4.5632778782413039</v>
       </c>
       <c r="F7">
-        <v>0.1792701363201199</v>
+        <v>0.179270112165376</v>
       </c>
       <c r="G7">
-        <v>0.12333851894431169</v>
+        <v>0.1743428890812779</v>
       </c>
       <c r="H7" s="1">
         <v>9.9514724182390975</v>
@@ -32895,13 +32895,13 @@
         <v>0.69699999999999995</v>
       </c>
       <c r="E8">
-        <v>2.6104089961342161</v>
+        <v>2.6104447758484182</v>
       </c>
       <c r="F8">
-        <v>0.31105892827192394</v>
+        <v>0.3110588866656474</v>
       </c>
       <c r="G8">
-        <v>0.19712418060658979</v>
+        <v>0.1610599991462828</v>
       </c>
       <c r="H8" s="1">
         <v>6.2220864527720572</v>
@@ -32927,13 +32927,13 @@
         <v>0.88400000000000001</v>
       </c>
       <c r="E9">
-        <v>3.1643225674284938</v>
+        <v>3.1644472541761028</v>
       </c>
       <c r="F9">
-        <v>0.35248953874974309</v>
+        <v>0.35248949411748182</v>
       </c>
       <c r="G9">
-        <v>0.28709888965499053</v>
+        <v>0.26007514515802049</v>
       </c>
       <c r="H9" s="1">
         <v>8.3682473582639663</v>
@@ -32959,13 +32959,13 @@
         <v>1.17</v>
       </c>
       <c r="E10">
-        <v>8.5754782323429186</v>
+        <v>8.5757628380941995</v>
       </c>
       <c r="F10">
-        <v>0.54416066482213188</v>
+        <v>0.54416060710963032</v>
       </c>
       <c r="G10">
-        <v>0.4018236713491023</v>
+        <v>0.4087321671641016</v>
       </c>
       <c r="H10" s="1">
         <v>23.34252336725616</v>
@@ -32991,13 +32991,13 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="E11">
-        <v>2.814088965512124</v>
+        <v>2.8141527666413064</v>
       </c>
       <c r="F11">
-        <v>0.3066186203871798</v>
+        <v>0.30661858202135689</v>
       </c>
       <c r="G11">
-        <v>0.20707822534376799</v>
+        <v>0.15949424750696661</v>
       </c>
       <c r="H11" s="1">
         <v>8.1520344798204789</v>
@@ -33023,13 +33023,13 @@
         <v>1.0229999999999999</v>
       </c>
       <c r="E12">
-        <v>1.394943036414082</v>
+        <v>1.394986968270904</v>
       </c>
       <c r="F12">
-        <v>0.18218727003779711</v>
+        <v>0.18218724741948208</v>
       </c>
       <c r="G12">
-        <v>0.2474992080498753</v>
+        <v>0.2123482219376705</v>
       </c>
       <c r="H12" s="1">
         <v>4.1130204014409699</v>
@@ -33055,13 +33055,13 @@
         <v>1.179</v>
       </c>
       <c r="E13">
-        <v>2.8143440509806559</v>
+        <v>2.8144145084830039</v>
       </c>
       <c r="F13">
-        <v>0.31751315237825128</v>
+        <v>0.31751311787948894</v>
       </c>
       <c r="G13">
-        <v>0.3109962696628239</v>
+        <v>0.3798973843436827</v>
       </c>
       <c r="H13" s="1">
         <v>8.7334767477191235</v>
@@ -33087,13 +33087,13 @@
         <v>1.028</v>
       </c>
       <c r="E14">
-        <v>6.6677807967156006</v>
+        <v>6.6679186338451704</v>
       </c>
       <c r="F14">
-        <v>0.2348062651325461</v>
+        <v>0.2348062383600327</v>
       </c>
       <c r="G14">
-        <v>0.35928827088915849</v>
+        <v>0.27881792844766196</v>
       </c>
       <c r="H14" s="1">
         <v>21.72767618587725</v>
@@ -33119,13 +33119,13 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="E15">
-        <v>5.2759427148092497</v>
+        <v>5.2760119821304698</v>
       </c>
       <c r="F15">
-        <v>0.25869607947220763</v>
+        <v>0.25869604688903158</v>
       </c>
       <c r="G15">
-        <v>0.16453321192700129</v>
+        <v>0.16247328161124591</v>
       </c>
       <c r="H15" s="1">
         <v>18.525416326701542</v>
@@ -33151,13 +33151,13 @@
         <v>1.0469999999999999</v>
       </c>
       <c r="E16">
-        <v>2.3864678728585309</v>
+        <v>2.3864849768103902</v>
       </c>
       <c r="F16">
-        <v>0.2963452505983345</v>
+        <v>0.29634521373868405</v>
       </c>
       <c r="G16">
-        <v>0.29815566038451791</v>
+        <v>0.35105940006769643</v>
       </c>
       <c r="H16" s="1">
         <v>8.4638177626054887</v>
@@ -33183,13 +33183,13 @@
         <v>0.94399999999999995</v>
       </c>
       <c r="E17">
-        <v>1.804291123625571</v>
+        <v>1.804301500817836</v>
       </c>
       <c r="F17">
-        <v>0.16421731366834899</v>
+        <v>0.1642172890782774</v>
       </c>
       <c r="G17">
-        <v>0.31714899211037789</v>
+        <v>0.27322869091481261</v>
       </c>
       <c r="H17" s="1">
         <v>6.9173868941039514</v>
@@ -33215,13 +33215,13 @@
         <v>0.75</v>
       </c>
       <c r="E18">
-        <v>1.3737291365656401</v>
+        <v>1.373730432163113</v>
       </c>
       <c r="F18">
-        <v>0.1545440252010318</v>
+        <v>0.1545439998868324</v>
       </c>
       <c r="G18">
-        <v>0.1636323010550835</v>
+        <v>0.1615290685767824</v>
       </c>
       <c r="H18" s="1">
         <v>5.3211258082798052</v>
@@ -33247,13 +33247,13 @@
         <v>0.8</v>
       </c>
       <c r="E19">
-        <v>1.4502076430368169</v>
+        <v>1.4502202692745061</v>
       </c>
       <c r="F19">
-        <v>0.19651610776158912</v>
+        <v>0.1965160720173407</v>
       </c>
       <c r="G19">
-        <v>0.18199418664851191</v>
+        <v>0.21491943484260048</v>
       </c>
       <c r="H19" s="1">
         <v>5.5251954469249061</v>
@@ -33279,13 +33279,13 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="E20">
-        <v>4.7879551897670387</v>
+        <v>4.7879960309240923</v>
       </c>
       <c r="F20">
-        <v>0.16775157461626941</v>
+        <v>0.16775154026148689</v>
       </c>
       <c r="G20">
-        <v>0.24734273787295399</v>
+        <v>0.22621142594332519</v>
       </c>
       <c r="H20" s="1">
         <v>17.867167765827542</v>
@@ -33311,13 +33311,13 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="E21">
-        <v>2.1815794500042403</v>
+        <v>2.1816014500990191</v>
       </c>
       <c r="F21">
-        <v>0.17777821586733661</v>
+        <v>0.1777781750870322</v>
       </c>
       <c r="G21">
-        <v>0.20546813987015991</v>
+        <v>0.1971700414917705</v>
       </c>
       <c r="H21" s="1">
         <v>7.7543441931697883</v>
@@ -33343,13 +33343,13 @@
         <v>1.077</v>
       </c>
       <c r="E22">
-        <v>0.95685900490201559</v>
+        <v>0.95687101820824849</v>
       </c>
       <c r="F22">
-        <v>0.14386662711009368</v>
+        <v>0.14386659541717201</v>
       </c>
       <c r="G22">
-        <v>0.25310101808884516</v>
+        <v>0.27612424136669073</v>
       </c>
       <c r="H22" s="1">
         <v>3.3399030658576958</v>
@@ -33375,13 +33375,13 @@
         <v>1.2969999999999999</v>
       </c>
       <c r="E23">
-        <v>0.90170117314539222</v>
+        <v>0.90171057736326987</v>
       </c>
       <c r="F23">
-        <v>0.13380641029539389</v>
+        <v>0.13380638177836082</v>
       </c>
       <c r="G23">
-        <v>0.32397092996886862</v>
+        <v>0.33654466316170506</v>
       </c>
       <c r="H23" s="1">
         <v>3.046438498345803</v>
@@ -33407,13 +33407,13 @@
         <v>1.345</v>
       </c>
       <c r="E24">
-        <v>1.1060132276363819</v>
+        <v>1.106027066845495</v>
       </c>
       <c r="F24">
-        <v>0.22176437330805129</v>
+        <v>0.2217643119909618</v>
       </c>
       <c r="G24">
-        <v>0.2342029700906782</v>
+        <v>0.22379188808652972</v>
       </c>
       <c r="H24" s="1">
         <v>3.435303215257556</v>
@@ -33439,13 +33439,13 @@
         <v>1.766</v>
       </c>
       <c r="E25">
-        <v>3.9288705727781883</v>
+        <v>3.928945561469618</v>
       </c>
       <c r="F25">
-        <v>0.18455536053162178</v>
+        <v>0.18455531500750871</v>
       </c>
       <c r="G25">
-        <v>0.69339239120766505</v>
+        <v>0.72700316478750182</v>
       </c>
       <c r="H25" s="1">
         <v>11.34804603232735</v>
@@ -33471,13 +33471,13 @@
         <v>1.1220000000000001</v>
       </c>
       <c r="E26">
-        <v>4.1634925339912048</v>
+        <v>4.1635464426319109</v>
       </c>
       <c r="F26">
-        <v>0.16940004486064089</v>
+        <v>0.16940000889344092</v>
       </c>
       <c r="G26">
-        <v>0.16635037887164461</v>
+        <v>0.16128471144132681</v>
       </c>
       <c r="H26" s="1">
         <v>12.21170225349611</v>
@@ -33503,13 +33503,13 @@
         <v>1.0469999999999999</v>
       </c>
       <c r="E27">
-        <v>0.65918667432622935</v>
+        <v>0.65919722722692176</v>
       </c>
       <c r="F27">
-        <v>0.1026316644954019</v>
+        <v>0.1026316457151588</v>
       </c>
       <c r="G27">
-        <v>0.3177904716340984</v>
+        <v>0.34648867720842041</v>
       </c>
       <c r="H27" s="1">
         <v>2.0164635512094349</v>
@@ -33535,13 +33535,13 @@
         <v>0.93799999999999994</v>
       </c>
       <c r="E28">
-        <v>0.53514404798194171</v>
+        <v>0.53515664499904647</v>
       </c>
       <c r="F28">
-        <v>0.1218978717547905</v>
+        <v>0.1218978545991475</v>
       </c>
       <c r="G28">
-        <v>0.24694935841371701</v>
+        <v>0.25550645726006627</v>
       </c>
       <c r="H28" s="1">
         <v>1.8561532757589361</v>
@@ -33567,13 +33567,13 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="E29">
-        <v>0.50236732777109383</v>
+        <v>0.50237095783352803</v>
       </c>
       <c r="F29">
-        <v>9.6539578938931878E-2</v>
+        <v>9.6539563204394774E-2</v>
       </c>
       <c r="G29">
-        <v>0.34075877128817866</v>
+        <v>0.38397375291661806</v>
       </c>
       <c r="H29" s="1">
         <v>1.7948073833070151</v>
@@ -33599,13 +33599,13 @@
         <v>1.024</v>
       </c>
       <c r="E30">
-        <v>1.224539229190557</v>
+        <v>1.2245733590832799</v>
       </c>
       <c r="F30">
-        <v>0.2423495334941399</v>
+        <v>0.2423494992265508</v>
       </c>
       <c r="G30">
-        <v>0.32778919585619642</v>
+        <v>0.34391484668716255</v>
       </c>
       <c r="H30" s="1">
         <v>4.4662241522675989</v>
@@ -33631,13 +33631,13 @@
         <v>0.99</v>
       </c>
       <c r="E31">
-        <v>3.6453258527586949</v>
+        <v>3.6454018128445793</v>
       </c>
       <c r="F31">
-        <v>0.260293953205397</v>
+        <v>0.26029391787725342</v>
       </c>
       <c r="G31">
-        <v>0.3752256406333101</v>
+        <v>0.42738214961375554</v>
       </c>
       <c r="H31" s="1">
         <v>11.917547042902829</v>
@@ -33663,13 +33663,13 @@
         <v>0.69799999999999995</v>
       </c>
       <c r="E32">
-        <v>3.394818619185985</v>
+        <v>3.394869056615287</v>
       </c>
       <c r="F32">
-        <v>0.31704325595350341</v>
+        <v>0.31704322234813148</v>
       </c>
       <c r="G32">
-        <v>0.1445582455884156</v>
+        <v>0.1338604895412546</v>
       </c>
       <c r="H32" s="1">
         <v>9.9973745189644223</v>
@@ -33695,13 +33695,13 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="E33">
-        <v>4.3927284314167379</v>
+        <v>4.392828803185397</v>
       </c>
       <c r="F33">
-        <v>0.20949106782232021</v>
+        <v>0.20949104298923429</v>
       </c>
       <c r="G33">
-        <v>0.29124187568225618</v>
+        <v>0.31903359086562127</v>
       </c>
       <c r="H33" s="1">
         <v>11.890566986659371</v>
@@ -33727,13 +33727,13 @@
         <v>0.503</v>
       </c>
       <c r="E34">
-        <v>2.2282706240971732</v>
+        <v>2.2283117466981901</v>
       </c>
       <c r="F34">
-        <v>0.21781999888584111</v>
+        <v>0.2178199737608289</v>
       </c>
       <c r="G34">
-        <v>0.1271930093600899</v>
+        <v>0.1253211057594891</v>
       </c>
       <c r="H34" s="1">
         <v>6.2936460874374296</v>
@@ -33759,13 +33759,13 @@
         <v>0.495</v>
       </c>
       <c r="E35">
-        <v>1.1237389826920601</v>
+        <v>1.123758966088124</v>
       </c>
       <c r="F35">
-        <v>0.16682283664082931</v>
+        <v>0.1668228180379252</v>
       </c>
       <c r="G35">
-        <v>0.13404839374343272</v>
+        <v>0.14964644808883582</v>
       </c>
       <c r="H35" s="1">
         <v>3.1403918552267118</v>
@@ -33791,13 +33791,13 @@
         <v>0.624</v>
       </c>
       <c r="E36">
-        <v>3.4395478771141432</v>
+        <v>3.4395967205111249</v>
       </c>
       <c r="F36">
-        <v>0.2125786335848224</v>
+        <v>0.2125786064818701</v>
       </c>
       <c r="G36">
-        <v>0.26039216672834592</v>
+        <v>0.27673657169356369</v>
       </c>
       <c r="H36" s="1">
         <v>9.1424514753492154</v>
@@ -33823,13 +33823,13 @@
         <v>0.753</v>
       </c>
       <c r="E37">
-        <v>1.1556918926352231</v>
+        <v>1.1557128232351779</v>
       </c>
       <c r="F37">
-        <v>0.21545415530238421</v>
+        <v>0.21545412374015888</v>
       </c>
       <c r="G37">
-        <v>0.31633493117210437</v>
+        <v>0.35775360152817259</v>
       </c>
       <c r="H37" s="1">
         <v>2.9612939952349588</v>
@@ -33855,13 +33855,13 @@
         <v>0.73499999999999999</v>
       </c>
       <c r="E38">
-        <v>21.002467694011781</v>
+        <v>21.00255288595606</v>
       </c>
       <c r="F38">
-        <v>0.1580845094052033</v>
+        <v>0.15808448398471711</v>
       </c>
       <c r="G38">
-        <v>0.41492310567048241</v>
+        <v>0.45463399269404442</v>
       </c>
       <c r="H38" s="1">
         <v>43.994739347021344</v>
@@ -33887,13 +33887,13 @@
         <v>0.63800000000000001</v>
       </c>
       <c r="E39">
-        <v>2.147758586836916</v>
+        <v>2.1477957220430119</v>
       </c>
       <c r="F39">
-        <v>6.3801287647354751E-2</v>
+        <v>6.3801277899510733E-2</v>
       </c>
       <c r="G39">
-        <v>0.29587536173734025</v>
+        <v>0.35075953095926282</v>
       </c>
       <c r="H39" s="1">
         <v>5.4654738224460564</v>
@@ -33919,13 +33919,13 @@
         <v>0.43099999999999999</v>
       </c>
       <c r="E40">
-        <v>0.23379914931246121</v>
+        <v>0.23380262727182399</v>
       </c>
       <c r="F40">
-        <v>3.5213390437946773E-2</v>
+        <v>3.521338540488847E-2</v>
       </c>
       <c r="G40">
-        <v>9.8979703723076337E-2</v>
+        <v>9.2471750279520842E-2</v>
       </c>
       <c r="H40" s="1">
         <v>0.6653400167795972</v>
@@ -33951,13 +33951,13 @@
         <v>0.61399999999999999</v>
       </c>
       <c r="E41">
-        <v>8.3613398497473693E-2</v>
+        <v>8.3614984090430569E-2</v>
       </c>
       <c r="F41">
-        <v>3.6926889173103189E-2</v>
+        <v>3.6926883574481928E-2</v>
       </c>
       <c r="G41">
-        <v>0.70109643790271747</v>
+        <v>0.78435156170384057</v>
       </c>
       <c r="H41" s="1">
         <v>0.256479974904813</v>
@@ -33983,13 +33983,13 @@
         <v>0.436</v>
       </c>
       <c r="E42">
-        <v>2.1805677110842439</v>
+        <v>2.180597053773798</v>
       </c>
       <c r="F42">
-        <v>5.7957707514764333E-2</v>
+        <v>5.7957698771724304E-2</v>
       </c>
       <c r="G42">
-        <v>0.23823786481161471</v>
+        <v>0.2148387298394607</v>
       </c>
       <c r="H42" s="1">
         <v>5.666187770115628</v>
@@ -34015,13 +34015,13 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3.900386692816185</v>
+        <v>3.9004715585122569</v>
       </c>
       <c r="F43">
-        <v>0.12859522942385632</v>
+        <v>0.1285952106653627</v>
       </c>
       <c r="G43">
-        <v>0.18734951930112512</v>
+        <v>0.1823257070154419</v>
       </c>
       <c r="H43" s="1">
         <v>9.6736458376397945</v>
